--- a/docs/더존법카_Mapping_정의서.xlsx
+++ b/docs/더존법카_Mapping_정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pci\Desktop\법카이관\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8425F15D-9A45-4771-9FA4-67961B510E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B836D45-09F2-418E-93EB-016E204B8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-13755" windowWidth="17730" windowHeight="11460" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1050" yWindow="-13545" windowWidth="20895" windowHeight="12345" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="37" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="355">
   <si>
     <t>구분</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1418,6 +1418,14 @@
       </rPr>
       <t>(승인데이터 중 국내사용분만, 매입데이터중 해외사용분과 국내사용 매입취소분만 입력합니다.)</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>'0000000'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행코드(금결원 3자리코드로 변환)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -9659,14 +9667,34 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="93" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -9705,26 +9733,6 @@
     </xf>
     <xf numFmtId="0" fontId="92" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -12264,8 +12272,8 @@
   </sheetPr>
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -12289,24 +12297,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="16.2" thickBot="1">
       <c r="A2" s="3" t="s">
@@ -12330,10 +12338,10 @@
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="36"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="3" t="s">
         <v>0</v>
       </c>
@@ -12360,7 +12368,7 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="49" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -12377,13 +12385,13 @@
         <v>54</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="38" t="s">
+      <c r="I3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="46" t="s">
         <v>343</v>
       </c>
       <c r="L3" s="16" t="s">
@@ -12406,7 +12414,7 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="16" t="s">
         <v>110</v>
       </c>
@@ -12421,11 +12429,11 @@
         <v>83</v>
       </c>
       <c r="H4" s="23"/>
-      <c r="I4" s="39"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="47"/>
       <c r="L4" s="16" t="s">
         <v>25</v>
       </c>
@@ -12439,14 +12447,14 @@
         <v>16</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>28</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="16" t="s">
         <v>87</v>
       </c>
@@ -12461,11 +12469,11 @@
         <v>56</v>
       </c>
       <c r="H5" s="23"/>
-      <c r="I5" s="39"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="7">
         <v>3</v>
       </c>
-      <c r="K5" s="42"/>
+      <c r="K5" s="47"/>
       <c r="L5" s="16" t="s">
         <v>24</v>
       </c>
@@ -12486,7 +12494,7 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="16" t="s">
         <v>88</v>
       </c>
@@ -12501,11 +12509,11 @@
         <v>57</v>
       </c>
       <c r="H6" s="23"/>
-      <c r="I6" s="39"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="7">
         <v>4</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="16" t="s">
         <v>30</v>
       </c>
@@ -12526,7 +12534,7 @@
       <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="16" t="s">
         <v>53</v>
       </c>
@@ -12541,11 +12549,11 @@
         <v>61</v>
       </c>
       <c r="H7" s="23"/>
-      <c r="I7" s="39"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="7">
         <v>5</v>
       </c>
-      <c r="K7" s="42"/>
+      <c r="K7" s="47"/>
       <c r="L7" s="16" t="s">
         <v>345</v>
       </c>
@@ -12566,7 +12574,7 @@
       <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="16"/>
       <c r="D8" s="17"/>
       <c r="E8" s="16" t="s">
@@ -12574,14 +12582,14 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="26" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="H8" s="23"/>
-      <c r="I8" s="39"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="7">
         <v>6</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="16" t="s">
         <v>35</v>
       </c>
@@ -12600,7 +12608,7 @@
       <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="16" t="s">
         <v>94</v>
       </c>
@@ -12615,11 +12623,11 @@
         <v>65</v>
       </c>
       <c r="H9" s="23"/>
-      <c r="I9" s="39"/>
+      <c r="I9" s="44"/>
       <c r="J9" s="7">
         <v>7</v>
       </c>
-      <c r="K9" s="42"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="16" t="s">
         <v>145</v>
       </c>
@@ -12638,18 +12646,18 @@
       <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="16"/>
       <c r="D10" s="17"/>
       <c r="E10" s="16"/>
       <c r="F10" s="18"/>
       <c r="G10" s="24"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="39"/>
+      <c r="I10" s="44"/>
       <c r="J10" s="7">
         <v>8</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="16" t="s">
         <v>39</v>
       </c>
@@ -12668,7 +12676,7 @@
       <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="16" t="s">
         <v>100</v>
       </c>
@@ -12683,11 +12691,11 @@
         <v>71</v>
       </c>
       <c r="H11" s="23"/>
-      <c r="I11" s="39"/>
+      <c r="I11" s="44"/>
       <c r="J11" s="7">
         <v>9</v>
       </c>
-      <c r="K11" s="42"/>
+      <c r="K11" s="47"/>
       <c r="L11" s="16" t="s">
         <v>146</v>
       </c>
@@ -12706,18 +12714,18 @@
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="16"/>
       <c r="F12" s="18"/>
       <c r="G12" s="24"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="39"/>
+      <c r="I12" s="44"/>
       <c r="J12" s="7">
         <v>10</v>
       </c>
-      <c r="K12" s="42"/>
+      <c r="K12" s="47"/>
       <c r="L12" s="16" t="s">
         <v>147</v>
       </c>
@@ -12736,7 +12744,7 @@
       <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="16" t="s">
         <v>96</v>
       </c>
@@ -12751,11 +12759,11 @@
         <v>67</v>
       </c>
       <c r="H13" s="23"/>
-      <c r="I13" s="39"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="7">
         <v>11</v>
       </c>
-      <c r="K13" s="42"/>
+      <c r="K13" s="47"/>
       <c r="L13" s="16" t="s">
         <v>148</v>
       </c>
@@ -12774,18 +12782,18 @@
       <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="16"/>
       <c r="D14" s="17"/>
       <c r="E14" s="16"/>
       <c r="F14" s="18"/>
       <c r="G14" s="24"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="39"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="7">
         <v>12</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="47"/>
       <c r="L14" s="16" t="s">
         <v>149</v>
       </c>
@@ -12804,18 +12812,18 @@
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="16"/>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
       <c r="F15" s="18"/>
       <c r="G15" s="24"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="39"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="7">
         <v>13</v>
       </c>
-      <c r="K15" s="42"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="16" t="s">
         <v>150</v>
       </c>
@@ -12834,7 +12842,7 @@
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="16" t="s">
         <v>86</v>
       </c>
@@ -12849,11 +12857,11 @@
         <v>55</v>
       </c>
       <c r="H16" s="23"/>
-      <c r="I16" s="39"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="7">
         <v>14</v>
       </c>
-      <c r="K16" s="42"/>
+      <c r="K16" s="47"/>
       <c r="L16" s="16" t="s">
         <v>151</v>
       </c>
@@ -12872,7 +12880,7 @@
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="16" t="s">
         <v>84</v>
       </c>
@@ -12887,11 +12895,11 @@
         <v>348</v>
       </c>
       <c r="H17" s="23"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="44"/>
       <c r="J17" s="7">
         <v>15</v>
       </c>
-      <c r="K17" s="42"/>
+      <c r="K17" s="47"/>
       <c r="L17" s="16" t="s">
         <v>152</v>
       </c>
@@ -12910,18 +12918,18 @@
       <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="16"/>
       <c r="F18" s="18"/>
       <c r="G18" s="24"/>
       <c r="H18" s="23"/>
-      <c r="I18" s="39"/>
+      <c r="I18" s="44"/>
       <c r="J18" s="7">
         <v>16</v>
       </c>
-      <c r="K18" s="42"/>
+      <c r="K18" s="47"/>
       <c r="L18" s="16" t="s">
         <v>153</v>
       </c>
@@ -12940,7 +12948,7 @@
       <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="16" t="s">
         <v>98</v>
       </c>
@@ -12955,11 +12963,11 @@
         <v>341</v>
       </c>
       <c r="H19" s="23"/>
-      <c r="I19" s="39"/>
+      <c r="I19" s="44"/>
       <c r="J19" s="7">
         <v>17</v>
       </c>
-      <c r="K19" s="42"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="16" t="s">
         <v>154</v>
       </c>
@@ -12978,18 +12986,18 @@
       <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="45"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
       <c r="E20" s="16"/>
       <c r="F20" s="18"/>
       <c r="G20" s="24"/>
       <c r="H20" s="23"/>
-      <c r="I20" s="39"/>
+      <c r="I20" s="44"/>
       <c r="J20" s="7">
         <v>18</v>
       </c>
-      <c r="K20" s="42"/>
+      <c r="K20" s="47"/>
       <c r="L20" s="16" t="s">
         <v>155</v>
       </c>
@@ -13008,7 +13016,7 @@
       <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="45"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
@@ -13019,11 +13027,11 @@
         <v>328</v>
       </c>
       <c r="H21" s="23"/>
-      <c r="I21" s="39"/>
+      <c r="I21" s="44"/>
       <c r="J21" s="7">
         <v>19</v>
       </c>
-      <c r="K21" s="42"/>
+      <c r="K21" s="47"/>
       <c r="L21" s="16" t="s">
         <v>156</v>
       </c>
@@ -13042,7 +13050,7 @@
       <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="45"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="16" t="s">
         <v>52</v>
       </c>
@@ -13057,11 +13065,11 @@
         <v>60</v>
       </c>
       <c r="H22" s="23"/>
-      <c r="I22" s="39"/>
+      <c r="I22" s="44"/>
       <c r="J22" s="7">
         <v>20</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="16" t="s">
         <v>344</v>
       </c>
@@ -13080,7 +13088,7 @@
       <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="45"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="16" t="s">
         <v>111</v>
       </c>
@@ -13095,11 +13103,11 @@
         <v>144</v>
       </c>
       <c r="H23" s="23"/>
-      <c r="I23" s="39"/>
+      <c r="I23" s="44"/>
       <c r="J23" s="7">
         <v>21</v>
       </c>
-      <c r="K23" s="42"/>
+      <c r="K23" s="47"/>
       <c r="L23" s="16" t="s">
         <v>49</v>
       </c>
@@ -13118,7 +13126,7 @@
       <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="45"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="16" t="s">
@@ -13129,11 +13137,11 @@
         <v>326</v>
       </c>
       <c r="H24" s="23"/>
-      <c r="I24" s="39"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="7">
         <v>22</v>
       </c>
-      <c r="K24" s="42"/>
+      <c r="K24" s="47"/>
       <c r="L24" s="16" t="s">
         <v>47</v>
       </c>
@@ -13152,7 +13160,7 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="45"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="16" t="s">
@@ -13163,11 +13171,11 @@
         <v>327</v>
       </c>
       <c r="H25" s="23"/>
-      <c r="I25" s="39"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="7">
         <v>23</v>
       </c>
-      <c r="K25" s="42"/>
+      <c r="K25" s="47"/>
       <c r="L25" s="16" t="s">
         <v>157</v>
       </c>
@@ -13186,18 +13194,18 @@
       <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="45"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="24"/>
       <c r="H26" s="23"/>
-      <c r="I26" s="39"/>
+      <c r="I26" s="44"/>
       <c r="J26" s="7">
         <v>24</v>
       </c>
-      <c r="K26" s="42"/>
+      <c r="K26" s="47"/>
       <c r="L26" s="16" t="s">
         <v>158</v>
       </c>
@@ -13216,18 +13224,18 @@
       <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="45"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="24"/>
       <c r="H27" s="23"/>
-      <c r="I27" s="39"/>
+      <c r="I27" s="44"/>
       <c r="J27" s="7">
         <v>25</v>
       </c>
-      <c r="K27" s="42"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="16" t="s">
         <v>159</v>
       </c>
@@ -13246,18 +13254,18 @@
       <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="45"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="16"/>
       <c r="F28" s="18"/>
       <c r="G28" s="24"/>
       <c r="H28" s="23"/>
-      <c r="I28" s="39"/>
+      <c r="I28" s="44"/>
       <c r="J28" s="7">
         <v>26</v>
       </c>
-      <c r="K28" s="42"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="16" t="s">
         <v>160</v>
       </c>
@@ -13276,18 +13284,18 @@
       <c r="A29" s="7">
         <v>27</v>
       </c>
-      <c r="B29" s="45"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="24"/>
       <c r="H29" s="23"/>
-      <c r="I29" s="39"/>
+      <c r="I29" s="44"/>
       <c r="J29" s="7">
         <v>27</v>
       </c>
-      <c r="K29" s="42"/>
+      <c r="K29" s="47"/>
       <c r="L29" s="16" t="s">
         <v>161</v>
       </c>
@@ -13306,18 +13314,18 @@
       <c r="A30" s="7">
         <v>28</v>
       </c>
-      <c r="B30" s="45"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
       <c r="G30" s="24"/>
       <c r="H30" s="23"/>
-      <c r="I30" s="39"/>
+      <c r="I30" s="44"/>
       <c r="J30" s="7">
         <v>28</v>
       </c>
-      <c r="K30" s="42"/>
+      <c r="K30" s="47"/>
       <c r="L30" s="16" t="s">
         <v>162</v>
       </c>
@@ -13336,18 +13344,18 @@
       <c r="A31" s="7">
         <v>29</v>
       </c>
-      <c r="B31" s="45"/>
+      <c r="B31" s="50"/>
       <c r="C31" s="16"/>
       <c r="D31" s="17"/>
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
       <c r="G31" s="24"/>
       <c r="H31" s="23"/>
-      <c r="I31" s="39"/>
+      <c r="I31" s="44"/>
       <c r="J31" s="7">
         <v>29</v>
       </c>
-      <c r="K31" s="42"/>
+      <c r="K31" s="47"/>
       <c r="L31" s="16" t="s">
         <v>163</v>
       </c>
@@ -13366,7 +13374,7 @@
       <c r="A32" s="7">
         <v>30</v>
       </c>
-      <c r="B32" s="45"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="16" t="s">
         <v>92</v>
       </c>
@@ -13381,11 +13389,11 @@
         <v>63</v>
       </c>
       <c r="H32" s="23"/>
-      <c r="I32" s="39"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="7">
         <v>30</v>
       </c>
-      <c r="K32" s="42"/>
+      <c r="K32" s="47"/>
       <c r="L32" s="16" t="s">
         <v>164</v>
       </c>
@@ -13404,7 +13412,7 @@
       <c r="A33" s="7">
         <v>31</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="16" t="s">
         <v>107</v>
       </c>
@@ -13419,11 +13427,11 @@
         <v>82</v>
       </c>
       <c r="H33" s="23"/>
-      <c r="I33" s="39"/>
+      <c r="I33" s="44"/>
       <c r="J33" s="7">
         <v>31</v>
       </c>
-      <c r="K33" s="42"/>
+      <c r="K33" s="47"/>
       <c r="L33" s="16" t="s">
         <v>165</v>
       </c>
@@ -13442,7 +13450,7 @@
       <c r="A34" s="7">
         <v>32</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="16" t="s">
         <v>106</v>
       </c>
@@ -13457,11 +13465,11 @@
         <v>80</v>
       </c>
       <c r="H34" s="23"/>
-      <c r="I34" s="39"/>
+      <c r="I34" s="44"/>
       <c r="J34" s="7">
         <v>32</v>
       </c>
-      <c r="K34" s="42"/>
+      <c r="K34" s="47"/>
       <c r="L34" s="16" t="s">
         <v>166</v>
       </c>
@@ -13480,18 +13488,18 @@
       <c r="A35" s="7">
         <v>33</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="16"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="18"/>
       <c r="G35" s="24"/>
       <c r="H35" s="23"/>
-      <c r="I35" s="39"/>
+      <c r="I35" s="44"/>
       <c r="J35" s="7">
         <v>33</v>
       </c>
-      <c r="K35" s="42"/>
+      <c r="K35" s="47"/>
       <c r="L35" s="16" t="s">
         <v>330</v>
       </c>
@@ -13510,7 +13518,7 @@
       <c r="A36" s="7">
         <v>34</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="16" t="s">
         <v>102</v>
       </c>
@@ -13525,11 +13533,11 @@
         <v>76</v>
       </c>
       <c r="H36" s="23"/>
-      <c r="I36" s="39"/>
+      <c r="I36" s="44"/>
       <c r="J36" s="7">
         <v>34</v>
       </c>
-      <c r="K36" s="42"/>
+      <c r="K36" s="47"/>
       <c r="L36" s="16" t="s">
         <v>167</v>
       </c>
@@ -13548,7 +13556,7 @@
       <c r="A37" s="7">
         <v>35</v>
       </c>
-      <c r="B37" s="45"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="16" t="s">
         <v>103</v>
       </c>
@@ -13563,11 +13571,11 @@
         <v>72</v>
       </c>
       <c r="H37" s="23"/>
-      <c r="I37" s="39"/>
+      <c r="I37" s="44"/>
       <c r="J37" s="7">
         <v>35</v>
       </c>
-      <c r="K37" s="42"/>
+      <c r="K37" s="47"/>
       <c r="L37" s="16" t="s">
         <v>168</v>
       </c>
@@ -13586,7 +13594,7 @@
       <c r="A38" s="7">
         <v>36</v>
       </c>
-      <c r="B38" s="45"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="16" t="s">
         <v>104</v>
       </c>
@@ -13601,11 +13609,11 @@
         <v>77</v>
       </c>
       <c r="H38" s="23"/>
-      <c r="I38" s="39"/>
+      <c r="I38" s="44"/>
       <c r="J38" s="7">
         <v>36</v>
       </c>
-      <c r="K38" s="42"/>
+      <c r="K38" s="47"/>
       <c r="L38" s="16" t="s">
         <v>169</v>
       </c>
@@ -13624,7 +13632,7 @@
       <c r="A39" s="7">
         <v>37</v>
       </c>
-      <c r="B39" s="45"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="16" t="s">
         <v>91</v>
       </c>
@@ -13639,11 +13647,11 @@
         <v>62</v>
       </c>
       <c r="H39" s="23"/>
-      <c r="I39" s="39"/>
+      <c r="I39" s="44"/>
       <c r="J39" s="7">
         <v>37</v>
       </c>
-      <c r="K39" s="42"/>
+      <c r="K39" s="47"/>
       <c r="L39" s="16" t="s">
         <v>170</v>
       </c>
@@ -13662,7 +13670,7 @@
       <c r="A40" s="7">
         <v>38</v>
       </c>
-      <c r="B40" s="45"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="16" t="s">
         <v>92</v>
       </c>
@@ -13677,11 +13685,11 @@
         <v>63</v>
       </c>
       <c r="H40" s="23"/>
-      <c r="I40" s="39"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="7">
         <v>38</v>
       </c>
-      <c r="K40" s="42"/>
+      <c r="K40" s="47"/>
       <c r="L40" s="16" t="s">
         <v>171</v>
       </c>
@@ -13700,7 +13708,7 @@
       <c r="A41" s="7">
         <v>39</v>
       </c>
-      <c r="B41" s="45"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="16" t="s">
         <v>93</v>
       </c>
@@ -13715,11 +13723,11 @@
         <v>64</v>
       </c>
       <c r="H41" s="23"/>
-      <c r="I41" s="39"/>
+      <c r="I41" s="44"/>
       <c r="J41" s="7">
         <v>39</v>
       </c>
-      <c r="K41" s="42"/>
+      <c r="K41" s="47"/>
       <c r="L41" s="16" t="s">
         <v>172</v>
       </c>
@@ -13738,18 +13746,18 @@
       <c r="A42" s="7">
         <v>40</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
       <c r="G42" s="24"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="39"/>
+      <c r="I42" s="44"/>
       <c r="J42" s="7">
         <v>40</v>
       </c>
-      <c r="K42" s="42"/>
+      <c r="K42" s="47"/>
       <c r="L42" s="16" t="s">
         <v>173</v>
       </c>
@@ -13768,18 +13776,18 @@
       <c r="A43" s="7">
         <v>41</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
       <c r="E43" s="16"/>
       <c r="F43" s="18"/>
       <c r="G43" s="24"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="39"/>
+      <c r="I43" s="44"/>
       <c r="J43" s="7">
         <v>41</v>
       </c>
-      <c r="K43" s="42"/>
+      <c r="K43" s="47"/>
       <c r="L43" s="16" t="s">
         <v>174</v>
       </c>
@@ -13798,7 +13806,7 @@
       <c r="A44" s="7">
         <v>42</v>
       </c>
-      <c r="B44" s="45"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="16" t="s">
         <v>95</v>
       </c>
@@ -13813,11 +13821,11 @@
         <v>66</v>
       </c>
       <c r="H44" s="23"/>
-      <c r="I44" s="39"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="7">
         <v>42</v>
       </c>
-      <c r="K44" s="42"/>
+      <c r="K44" s="47"/>
       <c r="L44" s="16" t="s">
         <v>175</v>
       </c>
@@ -13836,18 +13844,18 @@
       <c r="A45" s="7">
         <v>43</v>
       </c>
-      <c r="B45" s="45"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
       <c r="G45" s="24"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="39"/>
+      <c r="I45" s="44"/>
       <c r="J45" s="7">
         <v>43</v>
       </c>
-      <c r="K45" s="42"/>
+      <c r="K45" s="47"/>
       <c r="L45" s="16" t="s">
         <v>176</v>
       </c>
@@ -13866,18 +13874,18 @@
       <c r="A46" s="7">
         <v>44</v>
       </c>
-      <c r="B46" s="45"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="16"/>
       <c r="D46" s="17"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="24"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="39"/>
+      <c r="I46" s="44"/>
       <c r="J46" s="7">
         <v>44</v>
       </c>
-      <c r="K46" s="42"/>
+      <c r="K46" s="47"/>
       <c r="L46" s="16" t="s">
         <v>177</v>
       </c>
@@ -13896,18 +13904,18 @@
       <c r="A47" s="7">
         <v>45</v>
       </c>
-      <c r="B47" s="45"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="16"/>
       <c r="D47" s="17"/>
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
       <c r="G47" s="24"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="39"/>
+      <c r="I47" s="44"/>
       <c r="J47" s="7">
         <v>45</v>
       </c>
-      <c r="K47" s="42"/>
+      <c r="K47" s="47"/>
       <c r="L47" s="16" t="s">
         <v>178</v>
       </c>
@@ -13926,18 +13934,18 @@
       <c r="A48" s="7">
         <v>46</v>
       </c>
-      <c r="B48" s="45"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="16"/>
       <c r="D48" s="17"/>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
       <c r="G48" s="24"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="39"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="7">
         <v>46</v>
       </c>
-      <c r="K48" s="42"/>
+      <c r="K48" s="47"/>
       <c r="L48" s="16" t="s">
         <v>179</v>
       </c>
@@ -13956,18 +13964,18 @@
       <c r="A49" s="7">
         <v>47</v>
       </c>
-      <c r="B49" s="45"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
       <c r="G49" s="24"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="39"/>
+      <c r="I49" s="44"/>
       <c r="J49" s="7">
         <v>47</v>
       </c>
-      <c r="K49" s="42"/>
+      <c r="K49" s="47"/>
       <c r="L49" s="16" t="s">
         <v>180</v>
       </c>
@@ -13986,7 +13994,7 @@
       <c r="A50" s="7">
         <v>48</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="16" t="s">
         <v>97</v>
       </c>
@@ -14001,11 +14009,11 @@
         <v>68</v>
       </c>
       <c r="H50" s="23"/>
-      <c r="I50" s="39"/>
+      <c r="I50" s="44"/>
       <c r="J50" s="7">
         <v>48</v>
       </c>
-      <c r="K50" s="42"/>
+      <c r="K50" s="47"/>
       <c r="L50" s="16" t="s">
         <v>181</v>
       </c>
@@ -14024,7 +14032,7 @@
       <c r="A51" s="7">
         <v>49</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="16" t="s">
         <v>90</v>
       </c>
@@ -14039,11 +14047,11 @@
         <v>59</v>
       </c>
       <c r="H51" s="23"/>
-      <c r="I51" s="39"/>
+      <c r="I51" s="44"/>
       <c r="J51" s="7">
         <v>49</v>
       </c>
-      <c r="K51" s="42"/>
+      <c r="K51" s="47"/>
       <c r="L51" s="16" t="s">
         <v>43</v>
       </c>
@@ -14062,18 +14070,18 @@
       <c r="A52" s="7">
         <v>50</v>
       </c>
-      <c r="B52" s="45"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
       <c r="E52" s="16"/>
       <c r="F52" s="18"/>
       <c r="G52" s="24"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="39"/>
+      <c r="I52" s="44"/>
       <c r="J52" s="7">
         <v>50</v>
       </c>
-      <c r="K52" s="42"/>
+      <c r="K52" s="47"/>
       <c r="L52" s="16" t="s">
         <v>182</v>
       </c>
@@ -14092,7 +14100,7 @@
       <c r="A53" s="7">
         <v>51</v>
       </c>
-      <c r="B53" s="45"/>
+      <c r="B53" s="50"/>
       <c r="C53" s="16" t="s">
         <v>105</v>
       </c>
@@ -14107,11 +14115,11 @@
         <v>78</v>
       </c>
       <c r="H53" s="23"/>
-      <c r="I53" s="39"/>
+      <c r="I53" s="44"/>
       <c r="J53" s="7">
         <v>51</v>
       </c>
-      <c r="K53" s="42"/>
+      <c r="K53" s="47"/>
       <c r="L53" s="16" t="s">
         <v>183</v>
       </c>
@@ -14130,7 +14138,7 @@
       <c r="A54" s="7">
         <v>52</v>
       </c>
-      <c r="B54" s="45"/>
+      <c r="B54" s="50"/>
       <c r="C54" s="16"/>
       <c r="D54" s="16"/>
       <c r="E54" s="16"/>
@@ -14139,11 +14147,11 @@
         <v>346</v>
       </c>
       <c r="H54" s="23"/>
-      <c r="I54" s="39"/>
+      <c r="I54" s="44"/>
       <c r="J54" s="7">
         <v>52</v>
       </c>
-      <c r="K54" s="42"/>
+      <c r="K54" s="47"/>
       <c r="L54" s="16" t="s">
         <v>347</v>
       </c>
@@ -14162,7 +14170,7 @@
       <c r="A55" s="7">
         <v>53</v>
       </c>
-      <c r="B55" s="45"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="16" t="s">
         <v>101</v>
       </c>
@@ -14177,11 +14185,11 @@
         <v>75</v>
       </c>
       <c r="H55" s="23"/>
-      <c r="I55" s="39"/>
+      <c r="I55" s="44"/>
       <c r="J55" s="7">
         <v>53</v>
       </c>
-      <c r="K55" s="42"/>
+      <c r="K55" s="47"/>
       <c r="L55" s="16" t="s">
         <v>185</v>
       </c>
@@ -14200,18 +14208,18 @@
       <c r="A56" s="7">
         <v>54</v>
       </c>
-      <c r="B56" s="45"/>
+      <c r="B56" s="50"/>
       <c r="C56" s="16"/>
       <c r="D56" s="17"/>
       <c r="E56" s="16"/>
       <c r="F56" s="18"/>
       <c r="G56" s="24"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="39"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="7">
         <v>54</v>
       </c>
-      <c r="K56" s="42"/>
+      <c r="K56" s="47"/>
       <c r="L56" s="16" t="s">
         <v>186</v>
       </c>
@@ -14230,18 +14238,18 @@
       <c r="A57" s="7">
         <v>55</v>
       </c>
-      <c r="B57" s="45"/>
+      <c r="B57" s="50"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
       <c r="E57" s="16"/>
       <c r="F57" s="18"/>
       <c r="G57" s="24"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="39"/>
+      <c r="I57" s="44"/>
       <c r="J57" s="7">
         <v>55</v>
       </c>
-      <c r="K57" s="42"/>
+      <c r="K57" s="47"/>
       <c r="L57" s="16" t="s">
         <v>187</v>
       </c>
@@ -14260,7 +14268,7 @@
       <c r="A58" s="7">
         <v>56</v>
       </c>
-      <c r="B58" s="45"/>
+      <c r="B58" s="50"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
       <c r="E58" s="16" t="s">
@@ -14271,11 +14279,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="23"/>
-      <c r="I58" s="39"/>
+      <c r="I58" s="44"/>
       <c r="J58" s="7">
         <v>56</v>
       </c>
-      <c r="K58" s="42"/>
+      <c r="K58" s="47"/>
       <c r="L58" s="16" t="s">
         <v>188</v>
       </c>
@@ -14294,7 +14302,7 @@
       <c r="A59" s="7">
         <v>57</v>
       </c>
-      <c r="B59" s="45"/>
+      <c r="B59" s="50"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
       <c r="E59" s="16" t="s">
@@ -14305,11 +14313,11 @@
         <v>0</v>
       </c>
       <c r="H59" s="23"/>
-      <c r="I59" s="39"/>
+      <c r="I59" s="44"/>
       <c r="J59" s="7">
         <v>57</v>
       </c>
-      <c r="K59" s="42"/>
+      <c r="K59" s="47"/>
       <c r="L59" s="16" t="s">
         <v>189</v>
       </c>
@@ -14328,7 +14336,7 @@
       <c r="A60" s="7">
         <v>58</v>
       </c>
-      <c r="B60" s="45"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="16" t="s">
         <v>89</v>
       </c>
@@ -14343,11 +14351,11 @@
         <v>58</v>
       </c>
       <c r="H60" s="23"/>
-      <c r="I60" s="39"/>
+      <c r="I60" s="44"/>
       <c r="J60" s="7">
         <v>58</v>
       </c>
-      <c r="K60" s="42"/>
+      <c r="K60" s="47"/>
       <c r="L60" s="16" t="s">
         <v>190</v>
       </c>
@@ -14366,18 +14374,18 @@
       <c r="A61" s="7">
         <v>59</v>
       </c>
-      <c r="B61" s="45"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
       <c r="E61" s="16"/>
       <c r="F61" s="18"/>
       <c r="G61" s="24"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="39"/>
+      <c r="I61" s="44"/>
       <c r="J61" s="7">
         <v>59</v>
       </c>
-      <c r="K61" s="42"/>
+      <c r="K61" s="47"/>
       <c r="L61" s="16" t="s">
         <v>191</v>
       </c>
@@ -14396,7 +14404,7 @@
       <c r="A62" s="7">
         <v>60</v>
       </c>
-      <c r="B62" s="45"/>
+      <c r="B62" s="50"/>
       <c r="C62" s="16" t="s">
         <v>87</v>
       </c>
@@ -14411,11 +14419,11 @@
         <v>329</v>
       </c>
       <c r="H62" s="23"/>
-      <c r="I62" s="39"/>
+      <c r="I62" s="44"/>
       <c r="J62" s="7">
         <v>60</v>
       </c>
-      <c r="K62" s="42"/>
+      <c r="K62" s="47"/>
       <c r="L62" s="16" t="s">
         <v>192</v>
       </c>
@@ -14434,7 +14442,7 @@
       <c r="A63" s="7">
         <v>61</v>
       </c>
-      <c r="B63" s="45"/>
+      <c r="B63" s="50"/>
       <c r="C63" s="16" t="s">
         <v>99</v>
       </c>
@@ -14449,11 +14457,11 @@
         <v>70</v>
       </c>
       <c r="H63" s="23"/>
-      <c r="I63" s="39"/>
+      <c r="I63" s="44"/>
       <c r="J63" s="7">
         <v>61</v>
       </c>
-      <c r="K63" s="42"/>
+      <c r="K63" s="47"/>
       <c r="L63" s="16" t="s">
         <v>193</v>
       </c>
@@ -14472,18 +14480,18 @@
       <c r="A64" s="7">
         <v>62</v>
       </c>
-      <c r="B64" s="45"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17"/>
       <c r="E64" s="16"/>
       <c r="F64" s="18"/>
       <c r="G64" s="24"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="39"/>
+      <c r="I64" s="44"/>
       <c r="J64" s="7">
         <v>62</v>
       </c>
-      <c r="K64" s="42"/>
+      <c r="K64" s="47"/>
       <c r="L64" s="16" t="s">
         <v>194</v>
       </c>
@@ -14502,18 +14510,18 @@
       <c r="A65" s="7">
         <v>63</v>
       </c>
-      <c r="B65" s="45"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="16"/>
       <c r="D65" s="17"/>
       <c r="E65" s="16"/>
       <c r="F65" s="18"/>
       <c r="G65" s="24"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="39"/>
+      <c r="I65" s="44"/>
       <c r="J65" s="7">
         <v>63</v>
       </c>
-      <c r="K65" s="42"/>
+      <c r="K65" s="47"/>
       <c r="L65" s="16" t="s">
         <v>195</v>
       </c>
@@ -14532,18 +14540,18 @@
       <c r="A66" s="7">
         <v>64</v>
       </c>
-      <c r="B66" s="45"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17"/>
       <c r="E66" s="16"/>
       <c r="F66" s="18"/>
       <c r="G66" s="24"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="39"/>
+      <c r="I66" s="44"/>
       <c r="J66" s="7">
         <v>64</v>
       </c>
-      <c r="K66" s="42"/>
+      <c r="K66" s="47"/>
       <c r="L66" s="16" t="s">
         <v>196</v>
       </c>
@@ -14562,7 +14570,7 @@
       <c r="A67" s="7">
         <v>65</v>
       </c>
-      <c r="B67" s="45"/>
+      <c r="B67" s="50"/>
       <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="16" t="s">
@@ -14573,11 +14581,11 @@
         <v>0</v>
       </c>
       <c r="H67" s="23"/>
-      <c r="I67" s="39"/>
+      <c r="I67" s="44"/>
       <c r="J67" s="7">
         <v>65</v>
       </c>
-      <c r="K67" s="42"/>
+      <c r="K67" s="47"/>
       <c r="L67" s="16" t="s">
         <v>331</v>
       </c>
@@ -14596,7 +14604,7 @@
       <c r="A68" s="7">
         <v>66</v>
       </c>
-      <c r="B68" s="45"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="16" t="s">
@@ -14607,11 +14615,11 @@
         <v>0</v>
       </c>
       <c r="H68" s="23"/>
-      <c r="I68" s="39"/>
+      <c r="I68" s="44"/>
       <c r="J68" s="7">
         <v>66</v>
       </c>
-      <c r="K68" s="42"/>
+      <c r="K68" s="47"/>
       <c r="L68" s="16" t="s">
         <v>197</v>
       </c>
@@ -14630,7 +14638,7 @@
       <c r="A69" s="7">
         <v>67</v>
       </c>
-      <c r="B69" s="45"/>
+      <c r="B69" s="50"/>
       <c r="C69" s="16" t="s">
         <v>108</v>
       </c>
@@ -14645,11 +14653,11 @@
         <v>73</v>
       </c>
       <c r="H69" s="23"/>
-      <c r="I69" s="39"/>
+      <c r="I69" s="44"/>
       <c r="J69" s="7">
         <v>67</v>
       </c>
-      <c r="K69" s="42"/>
+      <c r="K69" s="47"/>
       <c r="L69" s="16" t="s">
         <v>198</v>
       </c>
@@ -14668,18 +14676,18 @@
       <c r="A70" s="7">
         <v>68</v>
       </c>
-      <c r="B70" s="45"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
       <c r="E70" s="16"/>
       <c r="F70" s="18"/>
       <c r="G70" s="24"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="39"/>
+      <c r="I70" s="44"/>
       <c r="J70" s="7">
         <v>68</v>
       </c>
-      <c r="K70" s="42"/>
+      <c r="K70" s="47"/>
       <c r="L70" s="16" t="s">
         <v>199</v>
       </c>
@@ -14698,18 +14706,18 @@
       <c r="A71" s="7">
         <v>69</v>
       </c>
-      <c r="B71" s="45"/>
+      <c r="B71" s="50"/>
       <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="16"/>
       <c r="F71" s="18"/>
       <c r="G71" s="24"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="39"/>
+      <c r="I71" s="44"/>
       <c r="J71" s="7">
         <v>69</v>
       </c>
-      <c r="K71" s="42"/>
+      <c r="K71" s="47"/>
       <c r="L71" s="16" t="s">
         <v>200</v>
       </c>
@@ -14728,18 +14736,18 @@
       <c r="A72" s="7">
         <v>70</v>
       </c>
-      <c r="B72" s="45"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17"/>
       <c r="E72" s="16"/>
       <c r="F72" s="18"/>
       <c r="G72" s="24"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="39"/>
+      <c r="I72" s="44"/>
       <c r="J72" s="7">
         <v>70</v>
       </c>
-      <c r="K72" s="42"/>
+      <c r="K72" s="47"/>
       <c r="L72" s="16" t="s">
         <v>201</v>
       </c>
@@ -14758,18 +14766,18 @@
       <c r="A73" s="7">
         <v>71</v>
       </c>
-      <c r="B73" s="45"/>
+      <c r="B73" s="50"/>
       <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="16"/>
       <c r="F73" s="18"/>
       <c r="G73" s="24"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="39"/>
+      <c r="I73" s="44"/>
       <c r="J73" s="7">
         <v>71</v>
       </c>
-      <c r="K73" s="42"/>
+      <c r="K73" s="47"/>
       <c r="L73" s="16" t="s">
         <v>202</v>
       </c>
@@ -14788,7 +14796,7 @@
       <c r="A74" s="7">
         <v>72</v>
       </c>
-      <c r="B74" s="45"/>
+      <c r="B74" s="50"/>
       <c r="C74" s="16" t="s">
         <v>109</v>
       </c>
@@ -14803,11 +14811,11 @@
         <v>74</v>
       </c>
       <c r="H74" s="23"/>
-      <c r="I74" s="39"/>
+      <c r="I74" s="44"/>
       <c r="J74" s="7">
         <v>72</v>
       </c>
-      <c r="K74" s="42"/>
+      <c r="K74" s="47"/>
       <c r="L74" s="16" t="s">
         <v>203</v>
       </c>
@@ -14826,18 +14834,18 @@
       <c r="A75" s="7">
         <v>73</v>
       </c>
-      <c r="B75" s="45"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="16"/>
       <c r="D75" s="17"/>
       <c r="E75" s="16"/>
       <c r="F75" s="18"/>
       <c r="G75" s="24"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="39"/>
+      <c r="I75" s="44"/>
       <c r="J75" s="7">
         <v>73</v>
       </c>
-      <c r="K75" s="42"/>
+      <c r="K75" s="47"/>
       <c r="L75" s="16" t="s">
         <v>204</v>
       </c>
@@ -14856,18 +14864,18 @@
       <c r="A76" s="7">
         <v>74</v>
       </c>
-      <c r="B76" s="45"/>
+      <c r="B76" s="50"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17"/>
       <c r="E76" s="16"/>
       <c r="F76" s="18"/>
       <c r="G76" s="24"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="39"/>
+      <c r="I76" s="44"/>
       <c r="J76" s="7">
         <v>74</v>
       </c>
-      <c r="K76" s="42"/>
+      <c r="K76" s="47"/>
       <c r="L76" s="16" t="s">
         <v>205</v>
       </c>
@@ -14886,18 +14894,18 @@
       <c r="A77" s="7">
         <v>75</v>
       </c>
-      <c r="B77" s="45"/>
+      <c r="B77" s="50"/>
       <c r="C77" s="16"/>
       <c r="D77" s="17"/>
       <c r="E77" s="16"/>
       <c r="F77" s="18"/>
       <c r="G77" s="24"/>
       <c r="H77" s="23"/>
-      <c r="I77" s="39"/>
+      <c r="I77" s="44"/>
       <c r="J77" s="7">
         <v>75</v>
       </c>
-      <c r="K77" s="42"/>
+      <c r="K77" s="47"/>
       <c r="L77" s="16" t="s">
         <v>206</v>
       </c>
@@ -14916,7 +14924,7 @@
       <c r="A78" s="7">
         <v>76</v>
       </c>
-      <c r="B78" s="45"/>
+      <c r="B78" s="50"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17"/>
       <c r="E78" s="16" t="s">
@@ -14927,11 +14935,11 @@
         <v>0</v>
       </c>
       <c r="H78" s="23"/>
-      <c r="I78" s="39"/>
+      <c r="I78" s="44"/>
       <c r="J78" s="7">
         <v>76</v>
       </c>
-      <c r="K78" s="42"/>
+      <c r="K78" s="47"/>
       <c r="L78" s="16" t="s">
         <v>207</v>
       </c>
@@ -14950,18 +14958,18 @@
       <c r="A79" s="7">
         <v>77</v>
       </c>
-      <c r="B79" s="45"/>
+      <c r="B79" s="50"/>
       <c r="C79" s="16"/>
       <c r="D79" s="17"/>
       <c r="E79" s="16"/>
       <c r="F79" s="18"/>
       <c r="G79" s="24"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="39"/>
+      <c r="I79" s="44"/>
       <c r="J79" s="7">
         <v>77</v>
       </c>
-      <c r="K79" s="42"/>
+      <c r="K79" s="47"/>
       <c r="L79" s="16" t="s">
         <v>208</v>
       </c>
@@ -14980,18 +14988,18 @@
       <c r="A80" s="7">
         <v>78</v>
       </c>
-      <c r="B80" s="45"/>
+      <c r="B80" s="50"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17"/>
       <c r="E80" s="16"/>
       <c r="F80" s="18"/>
       <c r="G80" s="24"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="39"/>
+      <c r="I80" s="44"/>
       <c r="J80" s="7">
         <v>78</v>
       </c>
-      <c r="K80" s="42"/>
+      <c r="K80" s="47"/>
       <c r="L80" s="16" t="s">
         <v>209</v>
       </c>
@@ -15010,18 +15018,18 @@
       <c r="A81" s="7">
         <v>79</v>
       </c>
-      <c r="B81" s="45"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="16"/>
       <c r="D81" s="17"/>
       <c r="E81" s="16"/>
       <c r="F81" s="18"/>
       <c r="G81" s="24"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="39"/>
+      <c r="I81" s="44"/>
       <c r="J81" s="7">
         <v>79</v>
       </c>
-      <c r="K81" s="42"/>
+      <c r="K81" s="47"/>
       <c r="L81" s="16" t="s">
         <v>210</v>
       </c>
@@ -15040,18 +15048,18 @@
       <c r="A82" s="7">
         <v>80</v>
       </c>
-      <c r="B82" s="45"/>
+      <c r="B82" s="50"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17"/>
       <c r="E82" s="16"/>
       <c r="F82" s="18"/>
       <c r="G82" s="24"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="39"/>
+      <c r="I82" s="44"/>
       <c r="J82" s="7">
         <v>80</v>
       </c>
-      <c r="K82" s="42"/>
+      <c r="K82" s="47"/>
       <c r="L82" s="16" t="s">
         <v>211</v>
       </c>
@@ -15070,18 +15078,18 @@
       <c r="A83" s="7">
         <v>81</v>
       </c>
-      <c r="B83" s="45"/>
+      <c r="B83" s="50"/>
       <c r="C83" s="16"/>
       <c r="D83" s="17"/>
       <c r="E83" s="16"/>
       <c r="F83" s="18"/>
       <c r="G83" s="24"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="39"/>
+      <c r="I83" s="44"/>
       <c r="J83" s="7">
         <v>81</v>
       </c>
-      <c r="K83" s="42"/>
+      <c r="K83" s="47"/>
       <c r="L83" s="16" t="s">
         <v>212</v>
       </c>
@@ -15100,18 +15108,18 @@
       <c r="A84" s="7">
         <v>82</v>
       </c>
-      <c r="B84" s="45"/>
+      <c r="B84" s="50"/>
       <c r="C84" s="16"/>
       <c r="D84" s="17"/>
       <c r="E84" s="16"/>
       <c r="F84" s="18"/>
       <c r="G84" s="24"/>
       <c r="H84" s="23"/>
-      <c r="I84" s="39"/>
+      <c r="I84" s="44"/>
       <c r="J84" s="7">
         <v>82</v>
       </c>
-      <c r="K84" s="42"/>
+      <c r="K84" s="47"/>
       <c r="L84" s="16" t="s">
         <v>213</v>
       </c>
@@ -15130,18 +15138,18 @@
       <c r="A85" s="7">
         <v>83</v>
       </c>
-      <c r="B85" s="45"/>
+      <c r="B85" s="50"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17"/>
       <c r="E85" s="16"/>
       <c r="F85" s="18"/>
       <c r="G85" s="24"/>
       <c r="H85" s="23"/>
-      <c r="I85" s="39"/>
+      <c r="I85" s="44"/>
       <c r="J85" s="7">
         <v>83</v>
       </c>
-      <c r="K85" s="42"/>
+      <c r="K85" s="47"/>
       <c r="L85" s="16" t="s">
         <v>214</v>
       </c>
@@ -15160,18 +15168,18 @@
       <c r="A86" s="7">
         <v>84</v>
       </c>
-      <c r="B86" s="45"/>
+      <c r="B86" s="50"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="16"/>
       <c r="F86" s="18"/>
       <c r="G86" s="24"/>
       <c r="H86" s="23"/>
-      <c r="I86" s="39"/>
+      <c r="I86" s="44"/>
       <c r="J86" s="7">
         <v>84</v>
       </c>
-      <c r="K86" s="42"/>
+      <c r="K86" s="47"/>
       <c r="L86" s="16" t="s">
         <v>215</v>
       </c>
@@ -15190,18 +15198,18 @@
       <c r="A87" s="7">
         <v>85</v>
       </c>
-      <c r="B87" s="45"/>
+      <c r="B87" s="50"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17"/>
       <c r="E87" s="16"/>
       <c r="F87" s="18"/>
       <c r="G87" s="24"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="39"/>
+      <c r="I87" s="44"/>
       <c r="J87" s="7">
         <v>85</v>
       </c>
-      <c r="K87" s="42"/>
+      <c r="K87" s="47"/>
       <c r="L87" s="16" t="s">
         <v>216</v>
       </c>
@@ -15220,18 +15228,18 @@
       <c r="A88" s="7">
         <v>86</v>
       </c>
-      <c r="B88" s="45"/>
+      <c r="B88" s="50"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17"/>
       <c r="E88" s="16"/>
       <c r="F88" s="18"/>
       <c r="G88" s="24"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="39"/>
+      <c r="I88" s="44"/>
       <c r="J88" s="7">
         <v>86</v>
       </c>
-      <c r="K88" s="42"/>
+      <c r="K88" s="47"/>
       <c r="L88" s="16" t="s">
         <v>217</v>
       </c>
@@ -15250,7 +15258,7 @@
       <c r="A89" s="7">
         <v>87</v>
       </c>
-      <c r="B89" s="45"/>
+      <c r="B89" s="50"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17"/>
       <c r="E89" s="16" t="s">
@@ -15261,11 +15269,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="23"/>
-      <c r="I89" s="39"/>
+      <c r="I89" s="44"/>
       <c r="J89" s="7">
         <v>87</v>
       </c>
-      <c r="K89" s="42"/>
+      <c r="K89" s="47"/>
       <c r="L89" s="16" t="s">
         <v>218</v>
       </c>
@@ -15284,7 +15292,7 @@
       <c r="A90" s="7">
         <v>88</v>
       </c>
-      <c r="B90" s="45"/>
+      <c r="B90" s="50"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17"/>
       <c r="E90" s="16" t="s">
@@ -15295,11 +15303,11 @@
         <v>0</v>
       </c>
       <c r="H90" s="23"/>
-      <c r="I90" s="39"/>
+      <c r="I90" s="44"/>
       <c r="J90" s="7">
         <v>88</v>
       </c>
-      <c r="K90" s="42"/>
+      <c r="K90" s="47"/>
       <c r="L90" s="16" t="s">
         <v>219</v>
       </c>
@@ -15318,18 +15326,18 @@
       <c r="A91" s="7">
         <v>89</v>
       </c>
-      <c r="B91" s="45"/>
+      <c r="B91" s="50"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17"/>
       <c r="E91" s="16"/>
       <c r="F91" s="18"/>
       <c r="G91" s="24"/>
       <c r="H91" s="23"/>
-      <c r="I91" s="39"/>
+      <c r="I91" s="44"/>
       <c r="J91" s="7">
         <v>89</v>
       </c>
-      <c r="K91" s="42"/>
+      <c r="K91" s="47"/>
       <c r="L91" s="16" t="s">
         <v>220</v>
       </c>
@@ -15348,18 +15356,18 @@
       <c r="A92" s="7">
         <v>90</v>
       </c>
-      <c r="B92" s="45"/>
+      <c r="B92" s="50"/>
       <c r="C92" s="16"/>
       <c r="D92" s="17"/>
       <c r="E92" s="16"/>
       <c r="F92" s="18"/>
       <c r="G92" s="24"/>
       <c r="H92" s="23"/>
-      <c r="I92" s="39"/>
+      <c r="I92" s="44"/>
       <c r="J92" s="7">
         <v>90</v>
       </c>
-      <c r="K92" s="42"/>
+      <c r="K92" s="47"/>
       <c r="L92" s="16" t="s">
         <v>221</v>
       </c>
@@ -15378,18 +15386,18 @@
       <c r="A93" s="7">
         <v>91</v>
       </c>
-      <c r="B93" s="45"/>
+      <c r="B93" s="50"/>
       <c r="C93" s="16"/>
       <c r="D93" s="17"/>
       <c r="E93" s="16"/>
       <c r="F93" s="18"/>
       <c r="G93" s="24"/>
       <c r="H93" s="23"/>
-      <c r="I93" s="39"/>
+      <c r="I93" s="44"/>
       <c r="J93" s="7">
         <v>91</v>
       </c>
-      <c r="K93" s="42"/>
+      <c r="K93" s="47"/>
       <c r="L93" s="16" t="s">
         <v>222</v>
       </c>
@@ -15408,18 +15416,18 @@
       <c r="A94" s="7">
         <v>92</v>
       </c>
-      <c r="B94" s="45"/>
+      <c r="B94" s="50"/>
       <c r="C94" s="16"/>
       <c r="D94" s="17"/>
       <c r="E94" s="16"/>
       <c r="F94" s="18"/>
       <c r="G94" s="24"/>
       <c r="H94" s="23"/>
-      <c r="I94" s="39"/>
+      <c r="I94" s="44"/>
       <c r="J94" s="7">
         <v>92</v>
       </c>
-      <c r="K94" s="42"/>
+      <c r="K94" s="47"/>
       <c r="L94" s="16" t="s">
         <v>223</v>
       </c>
@@ -15438,7 +15446,7 @@
       <c r="A95" s="7">
         <v>93</v>
       </c>
-      <c r="B95" s="45"/>
+      <c r="B95" s="50"/>
       <c r="C95" s="16"/>
       <c r="D95" s="17"/>
       <c r="E95" s="16" t="s">
@@ -15449,11 +15457,11 @@
         <v>332</v>
       </c>
       <c r="H95" s="23"/>
-      <c r="I95" s="39"/>
+      <c r="I95" s="44"/>
       <c r="J95" s="7">
         <v>93</v>
       </c>
-      <c r="K95" s="42"/>
+      <c r="K95" s="47"/>
       <c r="L95" s="16" t="s">
         <v>224</v>
       </c>
@@ -15472,18 +15480,18 @@
       <c r="A96" s="7">
         <v>94</v>
       </c>
-      <c r="B96" s="45"/>
+      <c r="B96" s="50"/>
       <c r="C96" s="16"/>
       <c r="D96" s="17"/>
       <c r="E96" s="16"/>
       <c r="F96" s="18"/>
       <c r="G96" s="24"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="39"/>
+      <c r="I96" s="44"/>
       <c r="J96" s="7">
         <v>94</v>
       </c>
-      <c r="K96" s="42"/>
+      <c r="K96" s="47"/>
       <c r="L96" s="16" t="s">
         <v>225</v>
       </c>
@@ -15502,18 +15510,18 @@
       <c r="A97" s="7">
         <v>95</v>
       </c>
-      <c r="B97" s="45"/>
+      <c r="B97" s="50"/>
       <c r="C97" s="16"/>
       <c r="D97" s="17"/>
       <c r="E97" s="16"/>
       <c r="F97" s="18"/>
       <c r="G97" s="24"/>
       <c r="H97" s="23"/>
-      <c r="I97" s="39"/>
+      <c r="I97" s="44"/>
       <c r="J97" s="7">
         <v>95</v>
       </c>
-      <c r="K97" s="42"/>
+      <c r="K97" s="47"/>
       <c r="L97" s="16" t="s">
         <v>226</v>
       </c>
@@ -15532,18 +15540,18 @@
       <c r="A98" s="7">
         <v>96</v>
       </c>
-      <c r="B98" s="45"/>
+      <c r="B98" s="50"/>
       <c r="C98" s="16"/>
       <c r="D98" s="17"/>
       <c r="E98" s="16"/>
       <c r="F98" s="18"/>
       <c r="G98" s="24"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="39"/>
+      <c r="I98" s="44"/>
       <c r="J98" s="7">
         <v>96</v>
       </c>
-      <c r="K98" s="42"/>
+      <c r="K98" s="47"/>
       <c r="L98" s="16" t="s">
         <v>227</v>
       </c>
@@ -15562,18 +15570,18 @@
       <c r="A99" s="7">
         <v>97</v>
       </c>
-      <c r="B99" s="45"/>
+      <c r="B99" s="50"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17"/>
       <c r="E99" s="16"/>
       <c r="F99" s="18"/>
       <c r="G99" s="24"/>
       <c r="H99" s="23"/>
-      <c r="I99" s="39"/>
+      <c r="I99" s="44"/>
       <c r="J99" s="7">
         <v>97</v>
       </c>
-      <c r="K99" s="42"/>
+      <c r="K99" s="47"/>
       <c r="L99" s="16" t="s">
         <v>228</v>
       </c>
@@ -15592,7 +15600,7 @@
       <c r="A100" s="7">
         <v>98</v>
       </c>
-      <c r="B100" s="45"/>
+      <c r="B100" s="50"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
       <c r="E100" s="35"/>
@@ -15601,11 +15609,11 @@
         <v>333</v>
       </c>
       <c r="H100" s="12"/>
-      <c r="I100" s="39"/>
+      <c r="I100" s="44"/>
       <c r="J100" s="7">
         <v>98</v>
       </c>
-      <c r="K100" s="42"/>
+      <c r="K100" s="47"/>
       <c r="L100" s="10" t="s">
         <v>229</v>
       </c>
@@ -15622,18 +15630,18 @@
       <c r="A101" s="7">
         <v>99</v>
       </c>
-      <c r="B101" s="45"/>
+      <c r="B101" s="50"/>
       <c r="C101" s="28"/>
       <c r="D101" s="29"/>
       <c r="E101" s="28"/>
       <c r="F101" s="30"/>
       <c r="G101" s="34"/>
       <c r="H101" s="23"/>
-      <c r="I101" s="39"/>
+      <c r="I101" s="44"/>
       <c r="J101" s="7">
         <v>99</v>
       </c>
-      <c r="K101" s="42"/>
+      <c r="K101" s="47"/>
       <c r="L101" s="28" t="s">
         <v>230</v>
       </c>
@@ -15644,7 +15652,7 @@
       <c r="O101" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P101" s="48" t="s">
+      <c r="P101" s="36" t="s">
         <v>320</v>
       </c>
     </row>
@@ -15652,18 +15660,18 @@
       <c r="A102" s="7">
         <v>100</v>
       </c>
-      <c r="B102" s="45"/>
+      <c r="B102" s="50"/>
       <c r="C102" s="16"/>
       <c r="D102" s="17"/>
       <c r="E102" s="16"/>
       <c r="F102" s="18"/>
       <c r="G102" s="24"/>
       <c r="H102" s="23"/>
-      <c r="I102" s="39"/>
+      <c r="I102" s="44"/>
       <c r="J102" s="7">
         <v>100</v>
       </c>
-      <c r="K102" s="42"/>
+      <c r="K102" s="47"/>
       <c r="L102" s="16" t="s">
         <v>231</v>
       </c>
@@ -15682,18 +15690,18 @@
       <c r="A103" s="7">
         <v>101</v>
       </c>
-      <c r="B103" s="45"/>
+      <c r="B103" s="50"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17"/>
       <c r="E103" s="16"/>
       <c r="F103" s="18"/>
       <c r="G103" s="24"/>
       <c r="H103" s="23"/>
-      <c r="I103" s="39"/>
+      <c r="I103" s="44"/>
       <c r="J103" s="7">
         <v>101</v>
       </c>
-      <c r="K103" s="42"/>
+      <c r="K103" s="47"/>
       <c r="L103" s="16" t="s">
         <v>232</v>
       </c>
@@ -15712,18 +15720,18 @@
       <c r="A104" s="7">
         <v>102</v>
       </c>
-      <c r="B104" s="46"/>
+      <c r="B104" s="51"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
       <c r="E104" s="10"/>
       <c r="F104" s="31"/>
       <c r="G104" s="32"/>
       <c r="H104" s="12"/>
-      <c r="I104" s="39"/>
+      <c r="I104" s="44"/>
       <c r="J104" s="7">
         <v>102</v>
       </c>
-      <c r="K104" s="42"/>
+      <c r="K104" s="47"/>
       <c r="L104" s="10" t="s">
         <v>233</v>
       </c>
@@ -15740,7 +15748,7 @@
       <c r="A105" s="7">
         <v>1</v>
       </c>
-      <c r="B105" s="47" t="s">
+      <c r="B105" s="52" t="s">
         <v>334</v>
       </c>
       <c r="C105" s="16" t="s">
@@ -15757,11 +15765,11 @@
         <v>117</v>
       </c>
       <c r="H105" s="23"/>
-      <c r="I105" s="39"/>
+      <c r="I105" s="44"/>
       <c r="J105" s="27">
         <v>1</v>
       </c>
-      <c r="K105" s="42"/>
+      <c r="K105" s="47"/>
       <c r="L105" s="28" t="s">
         <v>27</v>
       </c>
@@ -15774,7 +15782,7 @@
       <c r="O105" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="P105" s="48" t="s">
+      <c r="P105" s="36" t="s">
         <v>237</v>
       </c>
     </row>
@@ -15782,7 +15790,7 @@
       <c r="A106" s="7">
         <v>2</v>
       </c>
-      <c r="B106" s="45"/>
+      <c r="B106" s="50"/>
       <c r="C106" s="16" t="s">
         <v>110</v>
       </c>
@@ -15797,11 +15805,11 @@
         <v>134</v>
       </c>
       <c r="H106" s="23"/>
-      <c r="I106" s="39"/>
+      <c r="I106" s="44"/>
       <c r="J106" s="7">
         <v>2</v>
       </c>
-      <c r="K106" s="42"/>
+      <c r="K106" s="47"/>
       <c r="L106" s="16" t="s">
         <v>25</v>
       </c>
@@ -15822,7 +15830,7 @@
       <c r="A107" s="7">
         <v>3</v>
       </c>
-      <c r="B107" s="45"/>
+      <c r="B107" s="50"/>
       <c r="C107" s="16" t="s">
         <v>136</v>
       </c>
@@ -15837,11 +15845,11 @@
         <v>118</v>
       </c>
       <c r="H107" s="23"/>
-      <c r="I107" s="39"/>
+      <c r="I107" s="44"/>
       <c r="J107" s="7">
         <v>3</v>
       </c>
-      <c r="K107" s="42"/>
+      <c r="K107" s="47"/>
       <c r="L107" s="16" t="s">
         <v>24</v>
       </c>
@@ -15862,7 +15870,7 @@
       <c r="A108" s="7">
         <v>4</v>
       </c>
-      <c r="B108" s="45"/>
+      <c r="B108" s="50"/>
       <c r="C108" s="16" t="s">
         <v>137</v>
       </c>
@@ -15877,11 +15885,11 @@
         <v>119</v>
       </c>
       <c r="H108" s="23"/>
-      <c r="I108" s="39"/>
+      <c r="I108" s="44"/>
       <c r="J108" s="7">
         <v>4</v>
       </c>
-      <c r="K108" s="42"/>
+      <c r="K108" s="47"/>
       <c r="L108" s="16" t="s">
         <v>30</v>
       </c>
@@ -15902,7 +15910,7 @@
       <c r="A109" s="7">
         <v>5</v>
       </c>
-      <c r="B109" s="45"/>
+      <c r="B109" s="50"/>
       <c r="C109" s="16" t="s">
         <v>53</v>
       </c>
@@ -15917,11 +15925,11 @@
         <v>61</v>
       </c>
       <c r="H109" s="23"/>
-      <c r="I109" s="39"/>
+      <c r="I109" s="44"/>
       <c r="J109" s="7">
         <v>5</v>
       </c>
-      <c r="K109" s="42"/>
+      <c r="K109" s="47"/>
       <c r="L109" s="16" t="s">
         <v>32</v>
       </c>
@@ -15942,7 +15950,7 @@
       <c r="A110" s="7">
         <v>6</v>
       </c>
-      <c r="B110" s="45"/>
+      <c r="B110" s="50"/>
       <c r="C110" s="16"/>
       <c r="D110" s="17"/>
       <c r="E110" s="16" t="s">
@@ -15953,11 +15961,11 @@
         <v>325</v>
       </c>
       <c r="H110" s="23"/>
-      <c r="I110" s="39"/>
+      <c r="I110" s="44"/>
       <c r="J110" s="7">
         <v>6</v>
       </c>
-      <c r="K110" s="42"/>
+      <c r="K110" s="47"/>
       <c r="L110" s="16" t="s">
         <v>35</v>
       </c>
@@ -15976,7 +15984,7 @@
       <c r="A111" s="7">
         <v>7</v>
       </c>
-      <c r="B111" s="45"/>
+      <c r="B111" s="50"/>
       <c r="C111" s="16" t="s">
         <v>141</v>
       </c>
@@ -15991,11 +15999,11 @@
         <v>129</v>
       </c>
       <c r="H111" s="23"/>
-      <c r="I111" s="39"/>
+      <c r="I111" s="44"/>
       <c r="J111" s="7">
         <v>7</v>
       </c>
-      <c r="K111" s="42"/>
+      <c r="K111" s="47"/>
       <c r="L111" s="16" t="s">
         <v>145</v>
       </c>
@@ -16014,18 +16022,18 @@
       <c r="A112" s="7">
         <v>8</v>
       </c>
-      <c r="B112" s="45"/>
+      <c r="B112" s="50"/>
       <c r="C112" s="16"/>
       <c r="D112" s="17"/>
       <c r="E112" s="16"/>
       <c r="F112" s="18"/>
       <c r="G112" s="24"/>
       <c r="H112" s="23"/>
-      <c r="I112" s="39"/>
+      <c r="I112" s="44"/>
       <c r="J112" s="7">
         <v>8</v>
       </c>
-      <c r="K112" s="42"/>
+      <c r="K112" s="47"/>
       <c r="L112" s="16" t="s">
         <v>39</v>
       </c>
@@ -16044,7 +16052,7 @@
       <c r="A113" s="7">
         <v>9</v>
       </c>
-      <c r="B113" s="45"/>
+      <c r="B113" s="50"/>
       <c r="C113" s="16" t="s">
         <v>100</v>
       </c>
@@ -16059,11 +16067,11 @@
         <v>71</v>
       </c>
       <c r="H113" s="23"/>
-      <c r="I113" s="39"/>
+      <c r="I113" s="44"/>
       <c r="J113" s="7">
         <v>9</v>
       </c>
-      <c r="K113" s="42"/>
+      <c r="K113" s="47"/>
       <c r="L113" s="16" t="s">
         <v>146</v>
       </c>
@@ -16082,18 +16090,18 @@
       <c r="A114" s="7">
         <v>10</v>
       </c>
-      <c r="B114" s="45"/>
+      <c r="B114" s="50"/>
       <c r="C114" s="16"/>
       <c r="D114" s="17"/>
       <c r="E114" s="16"/>
       <c r="F114" s="18"/>
       <c r="G114" s="24"/>
       <c r="H114" s="23"/>
-      <c r="I114" s="39"/>
+      <c r="I114" s="44"/>
       <c r="J114" s="7">
         <v>10</v>
       </c>
-      <c r="K114" s="42"/>
+      <c r="K114" s="47"/>
       <c r="L114" s="16" t="s">
         <v>147</v>
       </c>
@@ -16112,7 +16120,7 @@
       <c r="A115" s="7">
         <v>11</v>
       </c>
-      <c r="B115" s="45"/>
+      <c r="B115" s="50"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16" t="s">
@@ -16123,11 +16131,11 @@
         <v>342</v>
       </c>
       <c r="H115" s="23"/>
-      <c r="I115" s="39"/>
+      <c r="I115" s="44"/>
       <c r="J115" s="7">
         <v>11</v>
       </c>
-      <c r="K115" s="42"/>
+      <c r="K115" s="47"/>
       <c r="L115" s="16" t="s">
         <v>148</v>
       </c>
@@ -16146,18 +16154,18 @@
       <c r="A116" s="7">
         <v>12</v>
       </c>
-      <c r="B116" s="45"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="16"/>
       <c r="D116" s="17"/>
       <c r="E116" s="16"/>
       <c r="F116" s="18"/>
       <c r="G116" s="24"/>
       <c r="H116" s="23"/>
-      <c r="I116" s="39"/>
+      <c r="I116" s="44"/>
       <c r="J116" s="7">
         <v>12</v>
       </c>
-      <c r="K116" s="42"/>
+      <c r="K116" s="47"/>
       <c r="L116" s="16" t="s">
         <v>149</v>
       </c>
@@ -16176,18 +16184,18 @@
       <c r="A117" s="7">
         <v>13</v>
       </c>
-      <c r="B117" s="45"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="16"/>
       <c r="D117" s="17"/>
       <c r="E117" s="16"/>
       <c r="F117" s="18"/>
       <c r="G117" s="24"/>
       <c r="H117" s="23"/>
-      <c r="I117" s="39"/>
+      <c r="I117" s="44"/>
       <c r="J117" s="7">
         <v>13</v>
       </c>
-      <c r="K117" s="42"/>
+      <c r="K117" s="47"/>
       <c r="L117" s="16" t="s">
         <v>150</v>
       </c>
@@ -16206,7 +16214,7 @@
       <c r="A118" s="7">
         <v>14</v>
       </c>
-      <c r="B118" s="45"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="16" t="s">
         <v>86</v>
       </c>
@@ -16221,11 +16229,11 @@
         <v>127</v>
       </c>
       <c r="H118" s="23"/>
-      <c r="I118" s="39"/>
+      <c r="I118" s="44"/>
       <c r="J118" s="7">
         <v>14</v>
       </c>
-      <c r="K118" s="42"/>
+      <c r="K118" s="47"/>
       <c r="L118" s="16" t="s">
         <v>151</v>
       </c>
@@ -16244,7 +16252,7 @@
       <c r="A119" s="7">
         <v>15</v>
       </c>
-      <c r="B119" s="45"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="16" t="s">
         <v>84</v>
       </c>
@@ -16259,11 +16267,11 @@
         <v>350</v>
       </c>
       <c r="H119" s="23"/>
-      <c r="I119" s="39"/>
+      <c r="I119" s="44"/>
       <c r="J119" s="7">
         <v>15</v>
       </c>
-      <c r="K119" s="42"/>
+      <c r="K119" s="47"/>
       <c r="L119" s="16" t="s">
         <v>152</v>
       </c>
@@ -16282,18 +16290,18 @@
       <c r="A120" s="7">
         <v>16</v>
       </c>
-      <c r="B120" s="45"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="16"/>
       <c r="D120" s="17"/>
       <c r="E120" s="16"/>
       <c r="F120" s="18"/>
       <c r="G120" s="24"/>
       <c r="H120" s="23"/>
-      <c r="I120" s="39"/>
+      <c r="I120" s="44"/>
       <c r="J120" s="7">
         <v>16</v>
       </c>
-      <c r="K120" s="42"/>
+      <c r="K120" s="47"/>
       <c r="L120" s="16" t="s">
         <v>153</v>
       </c>
@@ -16312,7 +16320,7 @@
       <c r="A121" s="7">
         <v>17</v>
       </c>
-      <c r="B121" s="45"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="16" t="s">
         <v>98</v>
       </c>
@@ -16327,11 +16335,11 @@
         <v>69</v>
       </c>
       <c r="H121" s="23"/>
-      <c r="I121" s="39"/>
+      <c r="I121" s="44"/>
       <c r="J121" s="7">
         <v>17</v>
       </c>
-      <c r="K121" s="42"/>
+      <c r="K121" s="47"/>
       <c r="L121" s="16" t="s">
         <v>154</v>
       </c>
@@ -16350,18 +16358,18 @@
       <c r="A122" s="7">
         <v>18</v>
       </c>
-      <c r="B122" s="45"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="16"/>
       <c r="D122" s="17"/>
       <c r="E122" s="16"/>
       <c r="F122" s="18"/>
       <c r="G122" s="24"/>
       <c r="H122" s="23"/>
-      <c r="I122" s="39"/>
+      <c r="I122" s="44"/>
       <c r="J122" s="7">
         <v>18</v>
       </c>
-      <c r="K122" s="42"/>
+      <c r="K122" s="47"/>
       <c r="L122" s="16" t="s">
         <v>155</v>
       </c>
@@ -16380,7 +16388,7 @@
       <c r="A123" s="7">
         <v>19</v>
       </c>
-      <c r="B123" s="45"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16" t="s">
@@ -16391,11 +16399,11 @@
         <v>328</v>
       </c>
       <c r="H123" s="23"/>
-      <c r="I123" s="39"/>
+      <c r="I123" s="44"/>
       <c r="J123" s="7">
         <v>19</v>
       </c>
-      <c r="K123" s="42"/>
+      <c r="K123" s="47"/>
       <c r="L123" s="16" t="s">
         <v>156</v>
       </c>
@@ -16414,7 +16422,7 @@
       <c r="A124" s="7">
         <v>20</v>
       </c>
-      <c r="B124" s="45"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="16" t="s">
         <v>52</v>
       </c>
@@ -16429,11 +16437,11 @@
         <v>60</v>
       </c>
       <c r="H124" s="23"/>
-      <c r="I124" s="39"/>
+      <c r="I124" s="44"/>
       <c r="J124" s="7">
         <v>20</v>
       </c>
-      <c r="K124" s="42"/>
+      <c r="K124" s="47"/>
       <c r="L124" s="16" t="s">
         <v>45</v>
       </c>
@@ -16452,7 +16460,7 @@
       <c r="A125" s="7">
         <v>21</v>
       </c>
-      <c r="B125" s="45"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="16" t="s">
         <v>111</v>
       </c>
@@ -16467,11 +16475,11 @@
         <v>144</v>
       </c>
       <c r="H125" s="23"/>
-      <c r="I125" s="39"/>
+      <c r="I125" s="44"/>
       <c r="J125" s="7">
         <v>21</v>
       </c>
-      <c r="K125" s="42"/>
+      <c r="K125" s="47"/>
       <c r="L125" s="16" t="s">
         <v>49</v>
       </c>
@@ -16490,7 +16498,7 @@
       <c r="A126" s="7">
         <v>22</v>
       </c>
-      <c r="B126" s="45"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="16"/>
       <c r="D126" s="17"/>
       <c r="E126" s="16" t="s">
@@ -16501,11 +16509,11 @@
         <v>326</v>
       </c>
       <c r="H126" s="23"/>
-      <c r="I126" s="39"/>
+      <c r="I126" s="44"/>
       <c r="J126" s="7">
         <v>22</v>
       </c>
-      <c r="K126" s="42"/>
+      <c r="K126" s="47"/>
       <c r="L126" s="16" t="s">
         <v>47</v>
       </c>
@@ -16524,7 +16532,7 @@
       <c r="A127" s="7">
         <v>23</v>
       </c>
-      <c r="B127" s="45"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="16"/>
       <c r="D127" s="17"/>
       <c r="E127" s="16" t="s">
@@ -16535,11 +16543,11 @@
         <v>327</v>
       </c>
       <c r="H127" s="23"/>
-      <c r="I127" s="39"/>
+      <c r="I127" s="44"/>
       <c r="J127" s="7">
         <v>23</v>
       </c>
-      <c r="K127" s="42"/>
+      <c r="K127" s="47"/>
       <c r="L127" s="16" t="s">
         <v>157</v>
       </c>
@@ -16558,18 +16566,18 @@
       <c r="A128" s="7">
         <v>24</v>
       </c>
-      <c r="B128" s="45"/>
+      <c r="B128" s="50"/>
       <c r="C128" s="16"/>
       <c r="D128" s="17"/>
       <c r="E128" s="16"/>
       <c r="F128" s="18"/>
       <c r="G128" s="24"/>
       <c r="H128" s="23"/>
-      <c r="I128" s="39"/>
+      <c r="I128" s="44"/>
       <c r="J128" s="7">
         <v>24</v>
       </c>
-      <c r="K128" s="42"/>
+      <c r="K128" s="47"/>
       <c r="L128" s="16" t="s">
         <v>158</v>
       </c>
@@ -16588,18 +16596,18 @@
       <c r="A129" s="7">
         <v>25</v>
       </c>
-      <c r="B129" s="45"/>
+      <c r="B129" s="50"/>
       <c r="C129" s="16"/>
       <c r="D129" s="17"/>
       <c r="E129" s="16"/>
       <c r="F129" s="18"/>
       <c r="G129" s="24"/>
       <c r="H129" s="23"/>
-      <c r="I129" s="39"/>
+      <c r="I129" s="44"/>
       <c r="J129" s="7">
         <v>25</v>
       </c>
-      <c r="K129" s="42"/>
+      <c r="K129" s="47"/>
       <c r="L129" s="16" t="s">
         <v>159</v>
       </c>
@@ -16618,18 +16626,18 @@
       <c r="A130" s="7">
         <v>26</v>
       </c>
-      <c r="B130" s="45"/>
+      <c r="B130" s="50"/>
       <c r="C130" s="16"/>
       <c r="D130" s="17"/>
       <c r="E130" s="16"/>
       <c r="F130" s="18"/>
       <c r="G130" s="24"/>
       <c r="H130" s="23"/>
-      <c r="I130" s="39"/>
+      <c r="I130" s="44"/>
       <c r="J130" s="7">
         <v>26</v>
       </c>
-      <c r="K130" s="42"/>
+      <c r="K130" s="47"/>
       <c r="L130" s="16" t="s">
         <v>160</v>
       </c>
@@ -16648,18 +16656,18 @@
       <c r="A131" s="7">
         <v>27</v>
       </c>
-      <c r="B131" s="45"/>
+      <c r="B131" s="50"/>
       <c r="C131" s="16"/>
       <c r="D131" s="17"/>
       <c r="E131" s="16"/>
       <c r="F131" s="18"/>
       <c r="G131" s="24"/>
       <c r="H131" s="23"/>
-      <c r="I131" s="39"/>
+      <c r="I131" s="44"/>
       <c r="J131" s="7">
         <v>27</v>
       </c>
-      <c r="K131" s="42"/>
+      <c r="K131" s="47"/>
       <c r="L131" s="16" t="s">
         <v>161</v>
       </c>
@@ -16678,18 +16686,18 @@
       <c r="A132" s="7">
         <v>28</v>
       </c>
-      <c r="B132" s="45"/>
+      <c r="B132" s="50"/>
       <c r="C132" s="16"/>
       <c r="D132" s="17"/>
       <c r="E132" s="16"/>
       <c r="F132" s="18"/>
       <c r="G132" s="24"/>
       <c r="H132" s="23"/>
-      <c r="I132" s="39"/>
+      <c r="I132" s="44"/>
       <c r="J132" s="7">
         <v>28</v>
       </c>
-      <c r="K132" s="42"/>
+      <c r="K132" s="47"/>
       <c r="L132" s="16" t="s">
         <v>162</v>
       </c>
@@ -16708,18 +16716,18 @@
       <c r="A133" s="7">
         <v>29</v>
       </c>
-      <c r="B133" s="45"/>
+      <c r="B133" s="50"/>
       <c r="C133" s="16"/>
       <c r="D133" s="17"/>
       <c r="E133" s="16"/>
       <c r="F133" s="18"/>
       <c r="G133" s="24"/>
       <c r="H133" s="23"/>
-      <c r="I133" s="39"/>
+      <c r="I133" s="44"/>
       <c r="J133" s="7">
         <v>29</v>
       </c>
-      <c r="K133" s="42"/>
+      <c r="K133" s="47"/>
       <c r="L133" s="16" t="s">
         <v>163</v>
       </c>
@@ -16738,7 +16746,7 @@
       <c r="A134" s="7">
         <v>30</v>
       </c>
-      <c r="B134" s="45"/>
+      <c r="B134" s="50"/>
       <c r="C134" s="16" t="s">
         <v>92</v>
       </c>
@@ -16753,11 +16761,11 @@
         <v>135</v>
       </c>
       <c r="H134" s="23"/>
-      <c r="I134" s="39"/>
+      <c r="I134" s="44"/>
       <c r="J134" s="7">
         <v>30</v>
       </c>
-      <c r="K134" s="42"/>
+      <c r="K134" s="47"/>
       <c r="L134" s="16" t="s">
         <v>164</v>
       </c>
@@ -16776,7 +16784,7 @@
       <c r="A135" s="7">
         <v>31</v>
       </c>
-      <c r="B135" s="45"/>
+      <c r="B135" s="50"/>
       <c r="C135" s="16" t="s">
         <v>143</v>
       </c>
@@ -16791,11 +16799,11 @@
         <v>82</v>
       </c>
       <c r="H135" s="23"/>
-      <c r="I135" s="39"/>
+      <c r="I135" s="44"/>
       <c r="J135" s="7">
         <v>31</v>
       </c>
-      <c r="K135" s="42"/>
+      <c r="K135" s="47"/>
       <c r="L135" s="16" t="s">
         <v>165</v>
       </c>
@@ -16814,7 +16822,7 @@
       <c r="A136" s="7">
         <v>32</v>
       </c>
-      <c r="B136" s="45"/>
+      <c r="B136" s="50"/>
       <c r="C136" s="16" t="s">
         <v>142</v>
       </c>
@@ -16829,11 +16837,11 @@
         <v>80</v>
       </c>
       <c r="H136" s="23"/>
-      <c r="I136" s="39"/>
+      <c r="I136" s="44"/>
       <c r="J136" s="7">
         <v>32</v>
       </c>
-      <c r="K136" s="42"/>
+      <c r="K136" s="47"/>
       <c r="L136" s="16" t="s">
         <v>166</v>
       </c>
@@ -16852,18 +16860,18 @@
       <c r="A137" s="7">
         <v>33</v>
       </c>
-      <c r="B137" s="45"/>
+      <c r="B137" s="50"/>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="18"/>
       <c r="G137" s="24"/>
       <c r="H137" s="23"/>
-      <c r="I137" s="39"/>
+      <c r="I137" s="44"/>
       <c r="J137" s="7">
         <v>33</v>
       </c>
-      <c r="K137" s="42"/>
+      <c r="K137" s="47"/>
       <c r="L137" s="16" t="s">
         <v>330</v>
       </c>
@@ -16882,7 +16890,7 @@
       <c r="A138" s="7">
         <v>34</v>
       </c>
-      <c r="B138" s="45"/>
+      <c r="B138" s="50"/>
       <c r="C138" s="16" t="s">
         <v>102</v>
       </c>
@@ -16897,11 +16905,11 @@
         <v>76</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="39"/>
+      <c r="I138" s="44"/>
       <c r="J138" s="7">
         <v>34</v>
       </c>
-      <c r="K138" s="42"/>
+      <c r="K138" s="47"/>
       <c r="L138" s="16" t="s">
         <v>167</v>
       </c>
@@ -16920,7 +16928,7 @@
       <c r="A139" s="7">
         <v>35</v>
       </c>
-      <c r="B139" s="45"/>
+      <c r="B139" s="50"/>
       <c r="C139" s="16" t="s">
         <v>103</v>
       </c>
@@ -16935,11 +16943,11 @@
         <v>130</v>
       </c>
       <c r="H139" s="23"/>
-      <c r="I139" s="39"/>
+      <c r="I139" s="44"/>
       <c r="J139" s="7">
         <v>35</v>
       </c>
-      <c r="K139" s="42"/>
+      <c r="K139" s="47"/>
       <c r="L139" s="16" t="s">
         <v>168</v>
       </c>
@@ -16958,7 +16966,7 @@
       <c r="A140" s="7">
         <v>36</v>
       </c>
-      <c r="B140" s="45"/>
+      <c r="B140" s="50"/>
       <c r="C140" s="16" t="s">
         <v>104</v>
       </c>
@@ -16973,11 +16981,11 @@
         <v>131</v>
       </c>
       <c r="H140" s="23"/>
-      <c r="I140" s="39"/>
+      <c r="I140" s="44"/>
       <c r="J140" s="7">
         <v>36</v>
       </c>
-      <c r="K140" s="42"/>
+      <c r="K140" s="47"/>
       <c r="L140" s="16" t="s">
         <v>169</v>
       </c>
@@ -16996,7 +17004,7 @@
       <c r="A141" s="7">
         <v>37</v>
       </c>
-      <c r="B141" s="45"/>
+      <c r="B141" s="50"/>
       <c r="C141" s="16" t="s">
         <v>94</v>
       </c>
@@ -17011,11 +17019,11 @@
         <v>121</v>
       </c>
       <c r="H141" s="23"/>
-      <c r="I141" s="39"/>
+      <c r="I141" s="44"/>
       <c r="J141" s="7">
         <v>37</v>
       </c>
-      <c r="K141" s="42"/>
+      <c r="K141" s="47"/>
       <c r="L141" s="16" t="s">
         <v>170</v>
       </c>
@@ -17034,7 +17042,7 @@
       <c r="A142" s="7">
         <v>38</v>
       </c>
-      <c r="B142" s="45"/>
+      <c r="B142" s="50"/>
       <c r="C142" s="16" t="s">
         <v>92</v>
       </c>
@@ -17049,11 +17057,11 @@
         <v>135</v>
       </c>
       <c r="H142" s="23"/>
-      <c r="I142" s="39"/>
+      <c r="I142" s="44"/>
       <c r="J142" s="7">
         <v>38</v>
       </c>
-      <c r="K142" s="42"/>
+      <c r="K142" s="47"/>
       <c r="L142" s="16" t="s">
         <v>171</v>
       </c>
@@ -17072,7 +17080,7 @@
       <c r="A143" s="7">
         <v>39</v>
       </c>
-      <c r="B143" s="45"/>
+      <c r="B143" s="50"/>
       <c r="C143" s="16" t="s">
         <v>93</v>
       </c>
@@ -17087,11 +17095,11 @@
         <v>133</v>
       </c>
       <c r="H143" s="23"/>
-      <c r="I143" s="39"/>
+      <c r="I143" s="44"/>
       <c r="J143" s="7">
         <v>39</v>
       </c>
-      <c r="K143" s="42"/>
+      <c r="K143" s="47"/>
       <c r="L143" s="16" t="s">
         <v>172</v>
       </c>
@@ -17110,18 +17118,18 @@
       <c r="A144" s="7">
         <v>40</v>
       </c>
-      <c r="B144" s="45"/>
+      <c r="B144" s="50"/>
       <c r="C144" s="16"/>
       <c r="D144" s="17"/>
       <c r="E144" s="16"/>
       <c r="F144" s="18"/>
       <c r="G144" s="24"/>
       <c r="H144" s="23"/>
-      <c r="I144" s="39"/>
+      <c r="I144" s="44"/>
       <c r="J144" s="7">
         <v>40</v>
       </c>
-      <c r="K144" s="42"/>
+      <c r="K144" s="47"/>
       <c r="L144" s="16" t="s">
         <v>173</v>
       </c>
@@ -17140,18 +17148,18 @@
       <c r="A145" s="7">
         <v>41</v>
       </c>
-      <c r="B145" s="45"/>
+      <c r="B145" s="50"/>
       <c r="C145" s="16"/>
       <c r="D145" s="17"/>
       <c r="E145" s="16"/>
       <c r="F145" s="18"/>
       <c r="G145" s="24"/>
       <c r="H145" s="23"/>
-      <c r="I145" s="39"/>
+      <c r="I145" s="44"/>
       <c r="J145" s="7">
         <v>41</v>
       </c>
-      <c r="K145" s="42"/>
+      <c r="K145" s="47"/>
       <c r="L145" s="16" t="s">
         <v>174</v>
       </c>
@@ -17170,7 +17178,7 @@
       <c r="A146" s="7">
         <v>42</v>
       </c>
-      <c r="B146" s="45"/>
+      <c r="B146" s="50"/>
       <c r="C146" s="16" t="s">
         <v>139</v>
       </c>
@@ -17185,11 +17193,11 @@
         <v>123</v>
       </c>
       <c r="H146" s="23"/>
-      <c r="I146" s="39"/>
+      <c r="I146" s="44"/>
       <c r="J146" s="7">
         <v>42</v>
       </c>
-      <c r="K146" s="42"/>
+      <c r="K146" s="47"/>
       <c r="L146" s="16" t="s">
         <v>175</v>
       </c>
@@ -17208,18 +17216,18 @@
       <c r="A147" s="7">
         <v>43</v>
       </c>
-      <c r="B147" s="45"/>
+      <c r="B147" s="50"/>
       <c r="C147" s="16"/>
       <c r="D147" s="17"/>
       <c r="E147" s="16"/>
       <c r="F147" s="18"/>
       <c r="G147" s="24"/>
       <c r="H147" s="23"/>
-      <c r="I147" s="39"/>
+      <c r="I147" s="44"/>
       <c r="J147" s="7">
         <v>43</v>
       </c>
-      <c r="K147" s="42"/>
+      <c r="K147" s="47"/>
       <c r="L147" s="16" t="s">
         <v>176</v>
       </c>
@@ -17238,18 +17246,18 @@
       <c r="A148" s="7">
         <v>44</v>
       </c>
-      <c r="B148" s="45"/>
+      <c r="B148" s="50"/>
       <c r="C148" s="16"/>
       <c r="D148" s="17"/>
       <c r="E148" s="16"/>
       <c r="F148" s="18"/>
       <c r="G148" s="24"/>
       <c r="H148" s="23"/>
-      <c r="I148" s="39"/>
+      <c r="I148" s="44"/>
       <c r="J148" s="7">
         <v>44</v>
       </c>
-      <c r="K148" s="42"/>
+      <c r="K148" s="47"/>
       <c r="L148" s="16" t="s">
         <v>177</v>
       </c>
@@ -17268,18 +17276,18 @@
       <c r="A149" s="7">
         <v>45</v>
       </c>
-      <c r="B149" s="45"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="16"/>
       <c r="D149" s="17"/>
       <c r="E149" s="16"/>
       <c r="F149" s="18"/>
       <c r="G149" s="24"/>
       <c r="H149" s="23"/>
-      <c r="I149" s="39"/>
+      <c r="I149" s="44"/>
       <c r="J149" s="7">
         <v>45</v>
       </c>
-      <c r="K149" s="42"/>
+      <c r="K149" s="47"/>
       <c r="L149" s="16" t="s">
         <v>178</v>
       </c>
@@ -17298,18 +17306,18 @@
       <c r="A150" s="7">
         <v>46</v>
       </c>
-      <c r="B150" s="45"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="16"/>
       <c r="D150" s="17"/>
       <c r="E150" s="16"/>
       <c r="F150" s="18"/>
       <c r="G150" s="24"/>
       <c r="H150" s="23"/>
-      <c r="I150" s="39"/>
+      <c r="I150" s="44"/>
       <c r="J150" s="7">
         <v>46</v>
       </c>
-      <c r="K150" s="42"/>
+      <c r="K150" s="47"/>
       <c r="L150" s="16" t="s">
         <v>179</v>
       </c>
@@ -17328,18 +17336,18 @@
       <c r="A151" s="7">
         <v>47</v>
       </c>
-      <c r="B151" s="45"/>
+      <c r="B151" s="50"/>
       <c r="C151" s="16"/>
       <c r="D151" s="17"/>
       <c r="E151" s="16"/>
       <c r="F151" s="18"/>
       <c r="G151" s="24"/>
       <c r="H151" s="23"/>
-      <c r="I151" s="39"/>
+      <c r="I151" s="44"/>
       <c r="J151" s="7">
         <v>47</v>
       </c>
-      <c r="K151" s="42"/>
+      <c r="K151" s="47"/>
       <c r="L151" s="16" t="s">
         <v>180</v>
       </c>
@@ -17358,7 +17366,7 @@
       <c r="A152" s="7">
         <v>48</v>
       </c>
-      <c r="B152" s="45"/>
+      <c r="B152" s="50"/>
       <c r="C152" s="16" t="s">
         <v>97</v>
       </c>
@@ -17373,11 +17381,11 @@
         <v>68</v>
       </c>
       <c r="H152" s="23"/>
-      <c r="I152" s="39"/>
+      <c r="I152" s="44"/>
       <c r="J152" s="7">
         <v>48</v>
       </c>
-      <c r="K152" s="42"/>
+      <c r="K152" s="47"/>
       <c r="L152" s="16" t="s">
         <v>181</v>
       </c>
@@ -17396,7 +17404,7 @@
       <c r="A153" s="7">
         <v>49</v>
       </c>
-      <c r="B153" s="45"/>
+      <c r="B153" s="50"/>
       <c r="C153" s="16" t="s">
         <v>90</v>
       </c>
@@ -17411,11 +17419,11 @@
         <v>120</v>
       </c>
       <c r="H153" s="23"/>
-      <c r="I153" s="39"/>
+      <c r="I153" s="44"/>
       <c r="J153" s="7">
         <v>49</v>
       </c>
-      <c r="K153" s="42"/>
+      <c r="K153" s="47"/>
       <c r="L153" s="16" t="s">
         <v>43</v>
       </c>
@@ -17434,18 +17442,18 @@
       <c r="A154" s="7">
         <v>50</v>
       </c>
-      <c r="B154" s="45"/>
+      <c r="B154" s="50"/>
       <c r="C154" s="16"/>
       <c r="D154" s="17"/>
       <c r="E154" s="16"/>
       <c r="F154" s="18"/>
       <c r="G154" s="24"/>
       <c r="H154" s="23"/>
-      <c r="I154" s="39"/>
+      <c r="I154" s="44"/>
       <c r="J154" s="7">
         <v>50</v>
       </c>
-      <c r="K154" s="42"/>
+      <c r="K154" s="47"/>
       <c r="L154" s="16" t="s">
         <v>182</v>
       </c>
@@ -17464,7 +17472,7 @@
       <c r="A155" s="7">
         <v>51</v>
       </c>
-      <c r="B155" s="45"/>
+      <c r="B155" s="50"/>
       <c r="C155" s="16" t="s">
         <v>105</v>
       </c>
@@ -17479,11 +17487,11 @@
         <v>132</v>
       </c>
       <c r="H155" s="23"/>
-      <c r="I155" s="39"/>
+      <c r="I155" s="44"/>
       <c r="J155" s="7">
         <v>51</v>
       </c>
-      <c r="K155" s="42"/>
+      <c r="K155" s="47"/>
       <c r="L155" s="16" t="s">
         <v>183</v>
       </c>
@@ -17502,7 +17510,7 @@
       <c r="A156" s="7">
         <v>52</v>
       </c>
-      <c r="B156" s="45"/>
+      <c r="B156" s="50"/>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
@@ -17511,11 +17519,11 @@
         <v>346</v>
       </c>
       <c r="H156" s="23"/>
-      <c r="I156" s="39"/>
+      <c r="I156" s="44"/>
       <c r="J156" s="7">
         <v>52</v>
       </c>
-      <c r="K156" s="42"/>
+      <c r="K156" s="47"/>
       <c r="L156" s="16" t="s">
         <v>184</v>
       </c>
@@ -17534,7 +17542,7 @@
       <c r="A157" s="7">
         <v>53</v>
       </c>
-      <c r="B157" s="45"/>
+      <c r="B157" s="50"/>
       <c r="C157" s="16" t="s">
         <v>101</v>
       </c>
@@ -17549,11 +17557,11 @@
         <v>75</v>
       </c>
       <c r="H157" s="23"/>
-      <c r="I157" s="39"/>
+      <c r="I157" s="44"/>
       <c r="J157" s="7">
         <v>53</v>
       </c>
-      <c r="K157" s="42"/>
+      <c r="K157" s="47"/>
       <c r="L157" s="16" t="s">
         <v>185</v>
       </c>
@@ -17572,18 +17580,18 @@
       <c r="A158" s="7">
         <v>54</v>
       </c>
-      <c r="B158" s="45"/>
+      <c r="B158" s="50"/>
       <c r="C158" s="16"/>
       <c r="D158" s="17"/>
       <c r="E158" s="16"/>
       <c r="F158" s="18"/>
       <c r="G158" s="24"/>
       <c r="H158" s="23"/>
-      <c r="I158" s="39"/>
+      <c r="I158" s="44"/>
       <c r="J158" s="7">
         <v>54</v>
       </c>
-      <c r="K158" s="42"/>
+      <c r="K158" s="47"/>
       <c r="L158" s="16" t="s">
         <v>186</v>
       </c>
@@ -17602,18 +17610,18 @@
       <c r="A159" s="7">
         <v>55</v>
       </c>
-      <c r="B159" s="45"/>
+      <c r="B159" s="50"/>
       <c r="C159" s="16"/>
       <c r="D159" s="17"/>
       <c r="E159" s="16"/>
       <c r="F159" s="18"/>
       <c r="G159" s="24"/>
       <c r="H159" s="23"/>
-      <c r="I159" s="39"/>
+      <c r="I159" s="44"/>
       <c r="J159" s="7">
         <v>55</v>
       </c>
-      <c r="K159" s="42"/>
+      <c r="K159" s="47"/>
       <c r="L159" s="16" t="s">
         <v>187</v>
       </c>
@@ -17632,7 +17640,7 @@
       <c r="A160" s="7">
         <v>56</v>
       </c>
-      <c r="B160" s="45"/>
+      <c r="B160" s="50"/>
       <c r="C160" s="16"/>
       <c r="D160" s="17"/>
       <c r="E160" s="16" t="s">
@@ -17643,11 +17651,11 @@
         <v>0</v>
       </c>
       <c r="H160" s="23"/>
-      <c r="I160" s="39"/>
+      <c r="I160" s="44"/>
       <c r="J160" s="7">
         <v>56</v>
       </c>
-      <c r="K160" s="42"/>
+      <c r="K160" s="47"/>
       <c r="L160" s="16" t="s">
         <v>188</v>
       </c>
@@ -17666,7 +17674,7 @@
       <c r="A161" s="7">
         <v>57</v>
       </c>
-      <c r="B161" s="45"/>
+      <c r="B161" s="50"/>
       <c r="C161" s="16"/>
       <c r="D161" s="17"/>
       <c r="E161" s="16" t="s">
@@ -17677,11 +17685,11 @@
         <v>0</v>
       </c>
       <c r="H161" s="23"/>
-      <c r="I161" s="39"/>
+      <c r="I161" s="44"/>
       <c r="J161" s="7">
         <v>57</v>
       </c>
-      <c r="K161" s="42"/>
+      <c r="K161" s="47"/>
       <c r="L161" s="16" t="s">
         <v>189</v>
       </c>
@@ -17700,7 +17708,7 @@
       <c r="A162" s="7">
         <v>58</v>
       </c>
-      <c r="B162" s="45"/>
+      <c r="B162" s="50"/>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16" t="s">
@@ -17711,11 +17719,11 @@
         <v>342</v>
       </c>
       <c r="H162" s="23"/>
-      <c r="I162" s="39"/>
+      <c r="I162" s="44"/>
       <c r="J162" s="7">
         <v>58</v>
       </c>
-      <c r="K162" s="42"/>
+      <c r="K162" s="47"/>
       <c r="L162" s="16" t="s">
         <v>190</v>
       </c>
@@ -17734,18 +17742,18 @@
       <c r="A163" s="7">
         <v>59</v>
       </c>
-      <c r="B163" s="45"/>
+      <c r="B163" s="50"/>
       <c r="C163" s="16"/>
       <c r="D163" s="17"/>
       <c r="E163" s="16"/>
       <c r="F163" s="18"/>
       <c r="G163" s="24"/>
       <c r="H163" s="23"/>
-      <c r="I163" s="39"/>
+      <c r="I163" s="44"/>
       <c r="J163" s="7">
         <v>59</v>
       </c>
-      <c r="K163" s="42"/>
+      <c r="K163" s="47"/>
       <c r="L163" s="16" t="s">
         <v>191</v>
       </c>
@@ -17764,7 +17772,7 @@
       <c r="A164" s="7">
         <v>60</v>
       </c>
-      <c r="B164" s="45"/>
+      <c r="B164" s="50"/>
       <c r="C164" s="16" t="s">
         <v>338</v>
       </c>
@@ -17779,11 +17787,11 @@
         <v>339</v>
       </c>
       <c r="H164" s="23"/>
-      <c r="I164" s="39"/>
+      <c r="I164" s="44"/>
       <c r="J164" s="7">
         <v>60</v>
       </c>
-      <c r="K164" s="42"/>
+      <c r="K164" s="47"/>
       <c r="L164" s="16" t="s">
         <v>192</v>
       </c>
@@ -17802,7 +17810,7 @@
       <c r="A165" s="7">
         <v>61</v>
       </c>
-      <c r="B165" s="45"/>
+      <c r="B165" s="50"/>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16" t="s">
@@ -17813,11 +17821,11 @@
         <v>342</v>
       </c>
       <c r="H165" s="23"/>
-      <c r="I165" s="39"/>
+      <c r="I165" s="44"/>
       <c r="J165" s="7">
         <v>61</v>
       </c>
-      <c r="K165" s="42"/>
+      <c r="K165" s="47"/>
       <c r="L165" s="16" t="s">
         <v>193</v>
       </c>
@@ -17836,18 +17844,18 @@
       <c r="A166" s="7">
         <v>62</v>
       </c>
-      <c r="B166" s="45"/>
+      <c r="B166" s="50"/>
       <c r="C166" s="16"/>
       <c r="D166" s="17"/>
       <c r="E166" s="16"/>
       <c r="F166" s="18"/>
       <c r="G166" s="24"/>
       <c r="H166" s="23"/>
-      <c r="I166" s="39"/>
+      <c r="I166" s="44"/>
       <c r="J166" s="7">
         <v>62</v>
       </c>
-      <c r="K166" s="42"/>
+      <c r="K166" s="47"/>
       <c r="L166" s="16" t="s">
         <v>194</v>
       </c>
@@ -17866,18 +17874,18 @@
       <c r="A167" s="7">
         <v>63</v>
       </c>
-      <c r="B167" s="45"/>
+      <c r="B167" s="50"/>
       <c r="C167" s="16"/>
       <c r="D167" s="17"/>
       <c r="E167" s="16"/>
       <c r="F167" s="18"/>
       <c r="G167" s="24"/>
       <c r="H167" s="23"/>
-      <c r="I167" s="39"/>
+      <c r="I167" s="44"/>
       <c r="J167" s="7">
         <v>63</v>
       </c>
-      <c r="K167" s="42"/>
+      <c r="K167" s="47"/>
       <c r="L167" s="16" t="s">
         <v>195</v>
       </c>
@@ -17896,18 +17904,18 @@
       <c r="A168" s="7">
         <v>64</v>
       </c>
-      <c r="B168" s="45"/>
+      <c r="B168" s="50"/>
       <c r="C168" s="16"/>
       <c r="D168" s="17"/>
       <c r="E168" s="16"/>
       <c r="F168" s="18"/>
       <c r="G168" s="24"/>
       <c r="H168" s="23"/>
-      <c r="I168" s="39"/>
+      <c r="I168" s="44"/>
       <c r="J168" s="7">
         <v>64</v>
       </c>
-      <c r="K168" s="42"/>
+      <c r="K168" s="47"/>
       <c r="L168" s="16" t="s">
         <v>196</v>
       </c>
@@ -17926,7 +17934,7 @@
       <c r="A169" s="7">
         <v>65</v>
       </c>
-      <c r="B169" s="45"/>
+      <c r="B169" s="50"/>
       <c r="C169" s="16" t="s">
         <v>140</v>
       </c>
@@ -17941,11 +17949,11 @@
         <v>124</v>
       </c>
       <c r="H169" s="23"/>
-      <c r="I169" s="39"/>
+      <c r="I169" s="44"/>
       <c r="J169" s="7">
         <v>65</v>
       </c>
-      <c r="K169" s="42"/>
+      <c r="K169" s="47"/>
       <c r="L169" s="16" t="s">
         <v>331</v>
       </c>
@@ -17964,7 +17972,7 @@
       <c r="A170" s="7">
         <v>66</v>
       </c>
-      <c r="B170" s="45"/>
+      <c r="B170" s="50"/>
       <c r="C170" s="16" t="s">
         <v>138</v>
       </c>
@@ -17979,11 +17987,11 @@
         <v>122</v>
       </c>
       <c r="H170" s="23"/>
-      <c r="I170" s="39"/>
+      <c r="I170" s="44"/>
       <c r="J170" s="7">
         <v>66</v>
       </c>
-      <c r="K170" s="42"/>
+      <c r="K170" s="47"/>
       <c r="L170" s="16" t="s">
         <v>197</v>
       </c>
@@ -18002,7 +18010,7 @@
       <c r="A171" s="7">
         <v>67</v>
       </c>
-      <c r="B171" s="45"/>
+      <c r="B171" s="50"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16" t="s">
@@ -18013,11 +18021,11 @@
         <v>342</v>
       </c>
       <c r="H171" s="23"/>
-      <c r="I171" s="39"/>
+      <c r="I171" s="44"/>
       <c r="J171" s="7">
         <v>67</v>
       </c>
-      <c r="K171" s="42"/>
+      <c r="K171" s="47"/>
       <c r="L171" s="16" t="s">
         <v>198</v>
       </c>
@@ -18036,18 +18044,18 @@
       <c r="A172" s="7">
         <v>68</v>
       </c>
-      <c r="B172" s="45"/>
+      <c r="B172" s="50"/>
       <c r="C172" s="16"/>
       <c r="D172" s="17"/>
       <c r="E172" s="16"/>
       <c r="F172" s="18"/>
       <c r="G172" s="24"/>
       <c r="H172" s="23"/>
-      <c r="I172" s="39"/>
+      <c r="I172" s="44"/>
       <c r="J172" s="7">
         <v>68</v>
       </c>
-      <c r="K172" s="42"/>
+      <c r="K172" s="47"/>
       <c r="L172" s="16" t="s">
         <v>199</v>
       </c>
@@ -18066,18 +18074,18 @@
       <c r="A173" s="7">
         <v>69</v>
       </c>
-      <c r="B173" s="45"/>
+      <c r="B173" s="50"/>
       <c r="C173" s="16"/>
       <c r="D173" s="17"/>
       <c r="E173" s="16"/>
       <c r="F173" s="18"/>
       <c r="G173" s="24"/>
       <c r="H173" s="23"/>
-      <c r="I173" s="39"/>
+      <c r="I173" s="44"/>
       <c r="J173" s="7">
         <v>69</v>
       </c>
-      <c r="K173" s="42"/>
+      <c r="K173" s="47"/>
       <c r="L173" s="16" t="s">
         <v>200</v>
       </c>
@@ -18096,18 +18104,18 @@
       <c r="A174" s="7">
         <v>70</v>
       </c>
-      <c r="B174" s="45"/>
+      <c r="B174" s="50"/>
       <c r="C174" s="16"/>
       <c r="D174" s="17"/>
       <c r="E174" s="16"/>
       <c r="F174" s="18"/>
       <c r="G174" s="24"/>
       <c r="H174" s="23"/>
-      <c r="I174" s="39"/>
+      <c r="I174" s="44"/>
       <c r="J174" s="7">
         <v>70</v>
       </c>
-      <c r="K174" s="42"/>
+      <c r="K174" s="47"/>
       <c r="L174" s="16" t="s">
         <v>201</v>
       </c>
@@ -18126,18 +18134,18 @@
       <c r="A175" s="7">
         <v>71</v>
       </c>
-      <c r="B175" s="45"/>
+      <c r="B175" s="50"/>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
       <c r="E175" s="16"/>
       <c r="F175" s="18"/>
       <c r="G175" s="24"/>
       <c r="H175" s="23"/>
-      <c r="I175" s="39"/>
+      <c r="I175" s="44"/>
       <c r="J175" s="7">
         <v>71</v>
       </c>
-      <c r="K175" s="42"/>
+      <c r="K175" s="47"/>
       <c r="L175" s="16" t="s">
         <v>202</v>
       </c>
@@ -18156,7 +18164,7 @@
       <c r="A176" s="7">
         <v>72</v>
       </c>
-      <c r="B176" s="45"/>
+      <c r="B176" s="50"/>
       <c r="C176" s="16" t="s">
         <v>109</v>
       </c>
@@ -18171,11 +18179,11 @@
         <v>125</v>
       </c>
       <c r="H176" s="23"/>
-      <c r="I176" s="39"/>
+      <c r="I176" s="44"/>
       <c r="J176" s="7">
         <v>72</v>
       </c>
-      <c r="K176" s="42"/>
+      <c r="K176" s="47"/>
       <c r="L176" s="16" t="s">
         <v>203</v>
       </c>
@@ -18194,18 +18202,18 @@
       <c r="A177" s="7">
         <v>73</v>
       </c>
-      <c r="B177" s="45"/>
+      <c r="B177" s="50"/>
       <c r="C177" s="16"/>
       <c r="D177" s="17"/>
       <c r="E177" s="16"/>
       <c r="F177" s="18"/>
       <c r="G177" s="24"/>
       <c r="H177" s="23"/>
-      <c r="I177" s="39"/>
+      <c r="I177" s="44"/>
       <c r="J177" s="7">
         <v>73</v>
       </c>
-      <c r="K177" s="42"/>
+      <c r="K177" s="47"/>
       <c r="L177" s="16" t="s">
         <v>204</v>
       </c>
@@ -18224,18 +18232,18 @@
       <c r="A178" s="7">
         <v>74</v>
       </c>
-      <c r="B178" s="45"/>
+      <c r="B178" s="50"/>
       <c r="C178" s="16"/>
       <c r="D178" s="17"/>
       <c r="E178" s="16"/>
       <c r="F178" s="18"/>
       <c r="G178" s="24"/>
       <c r="H178" s="23"/>
-      <c r="I178" s="39"/>
+      <c r="I178" s="44"/>
       <c r="J178" s="7">
         <v>74</v>
       </c>
-      <c r="K178" s="42"/>
+      <c r="K178" s="47"/>
       <c r="L178" s="16" t="s">
         <v>205</v>
       </c>
@@ -18254,18 +18262,18 @@
       <c r="A179" s="7">
         <v>75</v>
       </c>
-      <c r="B179" s="45"/>
+      <c r="B179" s="50"/>
       <c r="C179" s="16"/>
       <c r="D179" s="17"/>
       <c r="E179" s="16"/>
       <c r="F179" s="18"/>
       <c r="G179" s="24"/>
       <c r="H179" s="23"/>
-      <c r="I179" s="39"/>
+      <c r="I179" s="44"/>
       <c r="J179" s="7">
         <v>75</v>
       </c>
-      <c r="K179" s="42"/>
+      <c r="K179" s="47"/>
       <c r="L179" s="16" t="s">
         <v>206</v>
       </c>
@@ -18284,7 +18292,7 @@
       <c r="A180" s="7">
         <v>76</v>
       </c>
-      <c r="B180" s="45"/>
+      <c r="B180" s="50"/>
       <c r="C180" s="16"/>
       <c r="D180" s="17"/>
       <c r="E180" s="16" t="s">
@@ -18295,11 +18303,11 @@
         <v>0</v>
       </c>
       <c r="H180" s="23"/>
-      <c r="I180" s="39"/>
+      <c r="I180" s="44"/>
       <c r="J180" s="7">
         <v>76</v>
       </c>
-      <c r="K180" s="42"/>
+      <c r="K180" s="47"/>
       <c r="L180" s="16" t="s">
         <v>207</v>
       </c>
@@ -18318,18 +18326,18 @@
       <c r="A181" s="7">
         <v>77</v>
       </c>
-      <c r="B181" s="45"/>
+      <c r="B181" s="50"/>
       <c r="C181" s="16"/>
       <c r="D181" s="17"/>
       <c r="E181" s="16"/>
       <c r="F181" s="18"/>
       <c r="G181" s="24"/>
       <c r="H181" s="23"/>
-      <c r="I181" s="39"/>
+      <c r="I181" s="44"/>
       <c r="J181" s="7">
         <v>77</v>
       </c>
-      <c r="K181" s="42"/>
+      <c r="K181" s="47"/>
       <c r="L181" s="16" t="s">
         <v>208</v>
       </c>
@@ -18348,18 +18356,18 @@
       <c r="A182" s="7">
         <v>78</v>
       </c>
-      <c r="B182" s="45"/>
+      <c r="B182" s="50"/>
       <c r="C182" s="16"/>
       <c r="D182" s="17"/>
       <c r="E182" s="16"/>
       <c r="F182" s="18"/>
       <c r="G182" s="24"/>
       <c r="H182" s="23"/>
-      <c r="I182" s="39"/>
+      <c r="I182" s="44"/>
       <c r="J182" s="7">
         <v>78</v>
       </c>
-      <c r="K182" s="42"/>
+      <c r="K182" s="47"/>
       <c r="L182" s="16" t="s">
         <v>209</v>
       </c>
@@ -18378,18 +18386,18 @@
       <c r="A183" s="7">
         <v>79</v>
       </c>
-      <c r="B183" s="45"/>
+      <c r="B183" s="50"/>
       <c r="C183" s="16"/>
       <c r="D183" s="17"/>
       <c r="E183" s="16"/>
       <c r="F183" s="18"/>
       <c r="G183" s="24"/>
       <c r="H183" s="23"/>
-      <c r="I183" s="39"/>
+      <c r="I183" s="44"/>
       <c r="J183" s="7">
         <v>79</v>
       </c>
-      <c r="K183" s="42"/>
+      <c r="K183" s="47"/>
       <c r="L183" s="16" t="s">
         <v>210</v>
       </c>
@@ -18408,18 +18416,18 @@
       <c r="A184" s="7">
         <v>80</v>
       </c>
-      <c r="B184" s="45"/>
+      <c r="B184" s="50"/>
       <c r="C184" s="16"/>
       <c r="D184" s="17"/>
       <c r="E184" s="16"/>
       <c r="F184" s="18"/>
       <c r="G184" s="24"/>
       <c r="H184" s="23"/>
-      <c r="I184" s="39"/>
+      <c r="I184" s="44"/>
       <c r="J184" s="7">
         <v>80</v>
       </c>
-      <c r="K184" s="42"/>
+      <c r="K184" s="47"/>
       <c r="L184" s="16" t="s">
         <v>211</v>
       </c>
@@ -18438,18 +18446,18 @@
       <c r="A185" s="7">
         <v>81</v>
       </c>
-      <c r="B185" s="45"/>
+      <c r="B185" s="50"/>
       <c r="C185" s="16"/>
       <c r="D185" s="17"/>
       <c r="E185" s="16"/>
       <c r="F185" s="18"/>
       <c r="G185" s="24"/>
       <c r="H185" s="23"/>
-      <c r="I185" s="39"/>
+      <c r="I185" s="44"/>
       <c r="J185" s="7">
         <v>81</v>
       </c>
-      <c r="K185" s="42"/>
+      <c r="K185" s="47"/>
       <c r="L185" s="16" t="s">
         <v>212</v>
       </c>
@@ -18468,18 +18476,18 @@
       <c r="A186" s="7">
         <v>82</v>
       </c>
-      <c r="B186" s="45"/>
+      <c r="B186" s="50"/>
       <c r="C186" s="16"/>
       <c r="D186" s="17"/>
       <c r="E186" s="16"/>
       <c r="F186" s="18"/>
       <c r="G186" s="24"/>
       <c r="H186" s="23"/>
-      <c r="I186" s="39"/>
+      <c r="I186" s="44"/>
       <c r="J186" s="7">
         <v>82</v>
       </c>
-      <c r="K186" s="42"/>
+      <c r="K186" s="47"/>
       <c r="L186" s="16" t="s">
         <v>213</v>
       </c>
@@ -18498,18 +18506,18 @@
       <c r="A187" s="7">
         <v>83</v>
       </c>
-      <c r="B187" s="45"/>
+      <c r="B187" s="50"/>
       <c r="C187" s="16"/>
       <c r="D187" s="17"/>
       <c r="E187" s="16"/>
       <c r="F187" s="18"/>
       <c r="G187" s="24"/>
       <c r="H187" s="23"/>
-      <c r="I187" s="39"/>
+      <c r="I187" s="44"/>
       <c r="J187" s="7">
         <v>83</v>
       </c>
-      <c r="K187" s="42"/>
+      <c r="K187" s="47"/>
       <c r="L187" s="16" t="s">
         <v>214</v>
       </c>
@@ -18528,18 +18536,18 @@
       <c r="A188" s="7">
         <v>84</v>
       </c>
-      <c r="B188" s="45"/>
+      <c r="B188" s="50"/>
       <c r="C188" s="16"/>
       <c r="D188" s="17"/>
       <c r="E188" s="16"/>
       <c r="F188" s="18"/>
       <c r="G188" s="24"/>
       <c r="H188" s="23"/>
-      <c r="I188" s="39"/>
+      <c r="I188" s="44"/>
       <c r="J188" s="7">
         <v>84</v>
       </c>
-      <c r="K188" s="42"/>
+      <c r="K188" s="47"/>
       <c r="L188" s="16" t="s">
         <v>215</v>
       </c>
@@ -18558,18 +18566,18 @@
       <c r="A189" s="7">
         <v>85</v>
       </c>
-      <c r="B189" s="45"/>
+      <c r="B189" s="50"/>
       <c r="C189" s="16"/>
       <c r="D189" s="17"/>
       <c r="E189" s="16"/>
       <c r="F189" s="18"/>
       <c r="G189" s="24"/>
       <c r="H189" s="23"/>
-      <c r="I189" s="39"/>
+      <c r="I189" s="44"/>
       <c r="J189" s="7">
         <v>85</v>
       </c>
-      <c r="K189" s="42"/>
+      <c r="K189" s="47"/>
       <c r="L189" s="16" t="s">
         <v>216</v>
       </c>
@@ -18588,18 +18596,18 @@
       <c r="A190" s="7">
         <v>86</v>
       </c>
-      <c r="B190" s="45"/>
+      <c r="B190" s="50"/>
       <c r="C190" s="16"/>
       <c r="D190" s="17"/>
       <c r="E190" s="16"/>
       <c r="F190" s="18"/>
       <c r="G190" s="24"/>
       <c r="H190" s="23"/>
-      <c r="I190" s="39"/>
+      <c r="I190" s="44"/>
       <c r="J190" s="7">
         <v>86</v>
       </c>
-      <c r="K190" s="42"/>
+      <c r="K190" s="47"/>
       <c r="L190" s="16" t="s">
         <v>217</v>
       </c>
@@ -18618,7 +18626,7 @@
       <c r="A191" s="7">
         <v>87</v>
       </c>
-      <c r="B191" s="45"/>
+      <c r="B191" s="50"/>
       <c r="C191" s="16"/>
       <c r="D191" s="17"/>
       <c r="E191" s="16" t="s">
@@ -18629,11 +18637,11 @@
         <v>0</v>
       </c>
       <c r="H191" s="23"/>
-      <c r="I191" s="39"/>
+      <c r="I191" s="44"/>
       <c r="J191" s="7">
         <v>87</v>
       </c>
-      <c r="K191" s="42"/>
+      <c r="K191" s="47"/>
       <c r="L191" s="16" t="s">
         <v>218</v>
       </c>
@@ -18652,7 +18660,7 @@
       <c r="A192" s="7">
         <v>88</v>
       </c>
-      <c r="B192" s="45"/>
+      <c r="B192" s="50"/>
       <c r="C192" s="16"/>
       <c r="D192" s="17"/>
       <c r="E192" s="16" t="s">
@@ -18663,11 +18671,11 @@
         <v>0</v>
       </c>
       <c r="H192" s="23"/>
-      <c r="I192" s="39"/>
+      <c r="I192" s="44"/>
       <c r="J192" s="7">
         <v>88</v>
       </c>
-      <c r="K192" s="42"/>
+      <c r="K192" s="47"/>
       <c r="L192" s="16" t="s">
         <v>219</v>
       </c>
@@ -18686,18 +18694,18 @@
       <c r="A193" s="7">
         <v>89</v>
       </c>
-      <c r="B193" s="45"/>
+      <c r="B193" s="50"/>
       <c r="C193" s="16"/>
       <c r="D193" s="17"/>
       <c r="E193" s="16"/>
       <c r="F193" s="18"/>
       <c r="G193" s="24"/>
       <c r="H193" s="23"/>
-      <c r="I193" s="39"/>
+      <c r="I193" s="44"/>
       <c r="J193" s="7">
         <v>89</v>
       </c>
-      <c r="K193" s="42"/>
+      <c r="K193" s="47"/>
       <c r="L193" s="16" t="s">
         <v>220</v>
       </c>
@@ -18716,18 +18724,18 @@
       <c r="A194" s="7">
         <v>90</v>
       </c>
-      <c r="B194" s="45"/>
+      <c r="B194" s="50"/>
       <c r="C194" s="16"/>
       <c r="D194" s="17"/>
       <c r="E194" s="16"/>
       <c r="F194" s="18"/>
       <c r="G194" s="24"/>
       <c r="H194" s="23"/>
-      <c r="I194" s="39"/>
+      <c r="I194" s="44"/>
       <c r="J194" s="7">
         <v>90</v>
       </c>
-      <c r="K194" s="42"/>
+      <c r="K194" s="47"/>
       <c r="L194" s="16" t="s">
         <v>221</v>
       </c>
@@ -18746,18 +18754,18 @@
       <c r="A195" s="7">
         <v>91</v>
       </c>
-      <c r="B195" s="45"/>
+      <c r="B195" s="50"/>
       <c r="C195" s="16"/>
       <c r="D195" s="17"/>
       <c r="E195" s="16"/>
       <c r="F195" s="18"/>
       <c r="G195" s="24"/>
       <c r="H195" s="23"/>
-      <c r="I195" s="39"/>
+      <c r="I195" s="44"/>
       <c r="J195" s="7">
         <v>91</v>
       </c>
-      <c r="K195" s="42"/>
+      <c r="K195" s="47"/>
       <c r="L195" s="16" t="s">
         <v>222</v>
       </c>
@@ -18776,18 +18784,18 @@
       <c r="A196" s="7">
         <v>92</v>
       </c>
-      <c r="B196" s="45"/>
+      <c r="B196" s="50"/>
       <c r="C196" s="16"/>
       <c r="D196" s="17"/>
       <c r="E196" s="16"/>
       <c r="F196" s="18"/>
       <c r="G196" s="24"/>
       <c r="H196" s="23"/>
-      <c r="I196" s="39"/>
+      <c r="I196" s="44"/>
       <c r="J196" s="7">
         <v>92</v>
       </c>
-      <c r="K196" s="42"/>
+      <c r="K196" s="47"/>
       <c r="L196" s="16" t="s">
         <v>223</v>
       </c>
@@ -18806,7 +18814,7 @@
       <c r="A197" s="7">
         <v>93</v>
       </c>
-      <c r="B197" s="45"/>
+      <c r="B197" s="50"/>
       <c r="C197" s="16"/>
       <c r="D197" s="17"/>
       <c r="E197" s="16" t="s">
@@ -18817,11 +18825,11 @@
         <v>332</v>
       </c>
       <c r="H197" s="23"/>
-      <c r="I197" s="39"/>
+      <c r="I197" s="44"/>
       <c r="J197" s="7">
         <v>93</v>
       </c>
-      <c r="K197" s="42"/>
+      <c r="K197" s="47"/>
       <c r="L197" s="16" t="s">
         <v>224</v>
       </c>
@@ -18840,18 +18848,18 @@
       <c r="A198" s="7">
         <v>94</v>
       </c>
-      <c r="B198" s="45"/>
+      <c r="B198" s="50"/>
       <c r="C198" s="16"/>
       <c r="D198" s="17"/>
       <c r="E198" s="16"/>
       <c r="F198" s="18"/>
       <c r="G198" s="24"/>
       <c r="H198" s="23"/>
-      <c r="I198" s="39"/>
+      <c r="I198" s="44"/>
       <c r="J198" s="7">
         <v>94</v>
       </c>
-      <c r="K198" s="42"/>
+      <c r="K198" s="47"/>
       <c r="L198" s="16" t="s">
         <v>225</v>
       </c>
@@ -18870,18 +18878,18 @@
       <c r="A199" s="7">
         <v>95</v>
       </c>
-      <c r="B199" s="45"/>
+      <c r="B199" s="50"/>
       <c r="C199" s="16"/>
       <c r="D199" s="17"/>
       <c r="E199" s="16"/>
       <c r="F199" s="18"/>
       <c r="G199" s="24"/>
       <c r="H199" s="23"/>
-      <c r="I199" s="39"/>
+      <c r="I199" s="44"/>
       <c r="J199" s="7">
         <v>95</v>
       </c>
-      <c r="K199" s="42"/>
+      <c r="K199" s="47"/>
       <c r="L199" s="16" t="s">
         <v>226</v>
       </c>
@@ -18900,18 +18908,18 @@
       <c r="A200" s="7">
         <v>96</v>
       </c>
-      <c r="B200" s="45"/>
+      <c r="B200" s="50"/>
       <c r="C200" s="16"/>
       <c r="D200" s="17"/>
       <c r="E200" s="16"/>
       <c r="F200" s="18"/>
       <c r="G200" s="24"/>
       <c r="H200" s="23"/>
-      <c r="I200" s="39"/>
+      <c r="I200" s="44"/>
       <c r="J200" s="7">
         <v>96</v>
       </c>
-      <c r="K200" s="42"/>
+      <c r="K200" s="47"/>
       <c r="L200" s="16" t="s">
         <v>227</v>
       </c>
@@ -18930,18 +18938,18 @@
       <c r="A201" s="7">
         <v>97</v>
       </c>
-      <c r="B201" s="45"/>
+      <c r="B201" s="50"/>
       <c r="C201" s="16"/>
       <c r="D201" s="17"/>
       <c r="E201" s="16"/>
       <c r="F201" s="18"/>
       <c r="G201" s="24"/>
       <c r="H201" s="23"/>
-      <c r="I201" s="39"/>
+      <c r="I201" s="44"/>
       <c r="J201" s="7">
         <v>97</v>
       </c>
-      <c r="K201" s="42"/>
+      <c r="K201" s="47"/>
       <c r="L201" s="16" t="s">
         <v>228</v>
       </c>
@@ -18960,7 +18968,7 @@
       <c r="A202" s="7">
         <v>98</v>
       </c>
-      <c r="B202" s="45"/>
+      <c r="B202" s="50"/>
       <c r="C202" s="10"/>
       <c r="D202" s="11"/>
       <c r="E202" s="33"/>
@@ -18969,11 +18977,11 @@
         <v>333</v>
       </c>
       <c r="H202" s="22"/>
-      <c r="I202" s="39"/>
+      <c r="I202" s="44"/>
       <c r="J202" s="13">
         <v>98</v>
       </c>
-      <c r="K202" s="42"/>
+      <c r="K202" s="47"/>
       <c r="L202" s="10" t="s">
         <v>229</v>
       </c>
@@ -18990,18 +18998,18 @@
       <c r="A203" s="7">
         <v>99</v>
       </c>
-      <c r="B203" s="45"/>
+      <c r="B203" s="50"/>
       <c r="C203" s="28"/>
       <c r="D203" s="29"/>
       <c r="E203" s="28"/>
       <c r="F203" s="30"/>
       <c r="G203" s="34"/>
       <c r="H203" s="23"/>
-      <c r="I203" s="39"/>
+      <c r="I203" s="44"/>
       <c r="J203" s="27">
         <v>99</v>
       </c>
-      <c r="K203" s="42"/>
+      <c r="K203" s="47"/>
       <c r="L203" s="28" t="s">
         <v>230</v>
       </c>
@@ -19012,7 +19020,7 @@
       <c r="O203" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P203" s="48" t="s">
+      <c r="P203" s="36" t="s">
         <v>320</v>
       </c>
     </row>
@@ -19020,18 +19028,18 @@
       <c r="A204" s="7">
         <v>100</v>
       </c>
-      <c r="B204" s="45"/>
+      <c r="B204" s="50"/>
       <c r="C204" s="16"/>
       <c r="D204" s="17"/>
       <c r="E204" s="16"/>
       <c r="F204" s="18"/>
       <c r="G204" s="24"/>
       <c r="H204" s="23"/>
-      <c r="I204" s="39"/>
+      <c r="I204" s="44"/>
       <c r="J204" s="7">
         <v>100</v>
       </c>
-      <c r="K204" s="42"/>
+      <c r="K204" s="47"/>
       <c r="L204" s="16" t="s">
         <v>231</v>
       </c>
@@ -19050,18 +19058,18 @@
       <c r="A205" s="7">
         <v>101</v>
       </c>
-      <c r="B205" s="45"/>
+      <c r="B205" s="50"/>
       <c r="C205" s="16"/>
       <c r="D205" s="17"/>
       <c r="E205" s="16"/>
       <c r="F205" s="18"/>
       <c r="G205" s="24"/>
       <c r="H205" s="23"/>
-      <c r="I205" s="39"/>
+      <c r="I205" s="44"/>
       <c r="J205" s="7">
         <v>101</v>
       </c>
-      <c r="K205" s="42"/>
+      <c r="K205" s="47"/>
       <c r="L205" s="16" t="s">
         <v>232</v>
       </c>
@@ -19080,18 +19088,18 @@
       <c r="A206" s="13">
         <v>102</v>
       </c>
-      <c r="B206" s="46"/>
+      <c r="B206" s="51"/>
       <c r="C206" s="19"/>
       <c r="D206" s="20"/>
       <c r="E206" s="19"/>
       <c r="F206" s="21"/>
       <c r="G206" s="25"/>
       <c r="H206" s="22"/>
-      <c r="I206" s="40"/>
+      <c r="I206" s="45"/>
       <c r="J206" s="19">
         <v>102</v>
       </c>
-      <c r="K206" s="43"/>
+      <c r="K206" s="48"/>
       <c r="L206" s="19" t="s">
         <v>335</v>
       </c>
@@ -19100,7 +19108,7 @@
         <v>336</v>
       </c>
       <c r="O206" s="21"/>
-      <c r="P206" s="49" t="s">
+      <c r="P206" s="37" t="s">
         <v>337</v>
       </c>
     </row>

--- a/docs/더존법카_Mapping_정의서.xlsx
+++ b/docs/더존법카_Mapping_정의서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pci\Desktop\법카이관\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\itjProject\HpnBbnkDemon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B836D45-09F2-418E-93EB-016E204B8895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65D95C-EF05-4E4E-9797-C989FDA43173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="-13545" windowWidth="20895" windowHeight="12345" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="-15735" windowWidth="20580" windowHeight="14895" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="37" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="354">
   <si>
     <t>구분</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1295,10 +1295,6 @@
   </si>
   <si>
     <t>'KSNET'</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>'1001'</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -12272,8 +12268,8 @@
   </sheetPr>
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -12298,7 +12294,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A1" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -12372,7 +12368,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
@@ -12392,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>27</v>
@@ -12447,7 +12443,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.2">
@@ -12555,7 +12551,7 @@
       </c>
       <c r="K7" s="47"/>
       <c r="L7" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>2</v>
@@ -12582,7 +12578,7 @@
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H8" s="23"/>
       <c r="I8" s="44"/>
@@ -12892,7 +12888,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="44"/>
@@ -12911,7 +12907,7 @@
         <v>5</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:16" hidden="1">
@@ -12960,7 +12956,7 @@
         <v>4</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="44"/>
@@ -13024,7 +13020,7 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H21" s="23"/>
       <c r="I21" s="44"/>
@@ -13071,7 +13067,7 @@
       </c>
       <c r="K22" s="47"/>
       <c r="L22" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M22" s="17"/>
       <c r="N22" s="16" t="s">
@@ -13156,20 +13152,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" hidden="1">
       <c r="A25" s="7">
         <v>23</v>
       </c>
       <c r="B25" s="50"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
-      <c r="E25" s="16" t="s">
-        <v>324</v>
-      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="26" t="s">
-        <v>327</v>
-      </c>
+      <c r="G25" s="26"/>
       <c r="H25" s="23"/>
       <c r="I25" s="44"/>
       <c r="J25" s="7">
@@ -13501,7 +13493,7 @@
       </c>
       <c r="K35" s="47"/>
       <c r="L35" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M35" s="17"/>
       <c r="N35" s="16" t="s">
@@ -14144,7 +14136,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="18"/>
       <c r="G54" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="44"/>
@@ -14153,7 +14145,7 @@
       </c>
       <c r="K54" s="47"/>
       <c r="L54" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="16" t="s">
@@ -14416,7 +14408,7 @@
         <v>4</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="44"/>
@@ -14587,7 +14579,7 @@
       </c>
       <c r="K67" s="47"/>
       <c r="L67" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M67" s="17"/>
       <c r="N67" s="16" t="s">
@@ -15454,7 +15446,7 @@
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="44"/>
@@ -15606,7 +15598,7 @@
       <c r="E100" s="35"/>
       <c r="F100" s="31"/>
       <c r="G100" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H100" s="12"/>
       <c r="I100" s="44"/>
@@ -15749,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="B105" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>85</v>
@@ -16128,7 +16120,7 @@
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H115" s="23"/>
       <c r="I115" s="44"/>
@@ -16264,7 +16256,7 @@
         <v>5</v>
       </c>
       <c r="G119" s="24" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="44"/>
@@ -16283,7 +16275,7 @@
         <v>5</v>
       </c>
       <c r="P119" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:16" hidden="1">
@@ -16396,7 +16388,7 @@
       </c>
       <c r="F123" s="18"/>
       <c r="G123" s="26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H123" s="23"/>
       <c r="I123" s="44"/>
@@ -16528,20 +16520,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" hidden="1">
       <c r="A127" s="7">
         <v>23</v>
       </c>
       <c r="B127" s="50"/>
       <c r="C127" s="16"/>
       <c r="D127" s="17"/>
-      <c r="E127" s="16" t="s">
-        <v>324</v>
-      </c>
+      <c r="E127" s="16"/>
       <c r="F127" s="18"/>
-      <c r="G127" s="26" t="s">
-        <v>327</v>
-      </c>
+      <c r="G127" s="26"/>
       <c r="H127" s="23"/>
       <c r="I127" s="44"/>
       <c r="J127" s="7">
@@ -16873,7 +16861,7 @@
       </c>
       <c r="K137" s="47"/>
       <c r="L137" s="16" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M137" s="17"/>
       <c r="N137" s="16" t="s">
@@ -17516,7 +17504,7 @@
       <c r="E156" s="16"/>
       <c r="F156" s="18"/>
       <c r="G156" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H156" s="23"/>
       <c r="I156" s="44"/>
@@ -17716,7 +17704,7 @@
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H162" s="23"/>
       <c r="I162" s="44"/>
@@ -17774,7 +17762,7 @@
       </c>
       <c r="B164" s="50"/>
       <c r="C164" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D164" s="17"/>
       <c r="E164" s="16" t="s">
@@ -17784,7 +17772,7 @@
         <v>4</v>
       </c>
       <c r="G164" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H164" s="23"/>
       <c r="I164" s="44"/>
@@ -17818,7 +17806,7 @@
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H165" s="23"/>
       <c r="I165" s="44"/>
@@ -17955,7 +17943,7 @@
       </c>
       <c r="K169" s="47"/>
       <c r="L169" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M169" s="17"/>
       <c r="N169" s="16" t="s">
@@ -18018,7 +18006,7 @@
       </c>
       <c r="F171" s="18"/>
       <c r="G171" s="24" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H171" s="23"/>
       <c r="I171" s="44"/>
@@ -18822,7 +18810,7 @@
       </c>
       <c r="F197" s="18"/>
       <c r="G197" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H197" s="23"/>
       <c r="I197" s="44"/>
@@ -18974,7 +18962,7 @@
       <c r="E202" s="33"/>
       <c r="F202" s="31"/>
       <c r="G202" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H202" s="22"/>
       <c r="I202" s="44"/>
@@ -19101,15 +19089,15 @@
       </c>
       <c r="K206" s="48"/>
       <c r="L206" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M206" s="20"/>
       <c r="N206" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O206" s="21"/>
       <c r="P206" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/docs/더존법카_Mapping_정의서.xlsx
+++ b/docs/더존법카_Mapping_정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\itjProject\HpnBbnkDemon\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65D95C-EF05-4E4E-9797-C989FDA43173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8223EDD6-C5CA-46E8-8403-B7370304C842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="-15735" windowWidth="20580" windowHeight="14895" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="-15120" windowWidth="21150" windowHeight="13845" tabRatio="872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정의서" sheetId="37" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="356">
   <si>
     <t>구분</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1422,6 +1422,14 @@
   </si>
   <si>
     <t>은행코드(금결원 3자리코드로 변환)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPPRC_AMT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(Abroad='B') ApprTot else 0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -12268,8 +12276,8 @@
   </sheetPr>
   <dimension ref="A1:P206"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -13645,7 +13653,7 @@
       </c>
       <c r="K39" s="47"/>
       <c r="L39" s="16" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
       <c r="M39" s="17"/>
       <c r="N39" s="16" t="s">
@@ -17635,8 +17643,8 @@
         <v>324</v>
       </c>
       <c r="F160" s="18"/>
-      <c r="G160" s="24">
-        <v>0</v>
+      <c r="G160" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="H160" s="23"/>
       <c r="I160" s="44"/>
